--- a/files/format/harian/Format-Import-SIM.xlsx
+++ b/files/format/harian/Format-Import-SIM.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>POLRES</t>
+    <t>POLDA</t>
   </si>
   <si>
     <t>BARU</t>
@@ -25,1399 +25,106 @@
     <t>PERPANJANGAN</t>
   </si>
   <si>
-    <t>DITLANTAS METROJAYA</t>
+    <t>Sulawesi Tengah</t>
   </si>
   <si>
-    <t>POLRES  BANGKA TENGAH</t>
+    <t>Sulawesi Barat</t>
   </si>
   <si>
-    <t>POLRES  BENGKAYANG</t>
+    <t>Lampung</t>
   </si>
   <si>
-    <t>POLRES  BOLANG MONGGONDOW SELATAN</t>
+    <t>Jambi</t>
   </si>
   <si>
-    <t>POLRES  BOLANG MONGGONDOW UTARA</t>
+    <t>Daerah Istimewa Yogyakarta</t>
   </si>
   <si>
-    <t>POLRES  BUOL</t>
+    <t>Maluku Utara</t>
   </si>
   <si>
-    <t>POLRES  KOLAKA</t>
+    <t>Bengkulu</t>
   </si>
   <si>
-    <t>POLRES  KOLAKA UTARA</t>
+    <t>Gorontalo</t>
   </si>
   <si>
-    <t>POLRES  KONAWE</t>
+    <t>Sumatera Selatan</t>
   </si>
   <si>
-    <t>POLRES  LANDAK</t>
+    <t>Jawa Barat</t>
   </si>
   <si>
-    <t>POLRES  MINAHASA SELATAN</t>
+    <t>Sulawesi Selatan</t>
   </si>
   <si>
-    <t>POLRES  PELALAWAN</t>
+    <t>Maluku</t>
   </si>
   <si>
-    <t>POLRES  POSO</t>
+    <t>Sumatera Utara</t>
   </si>
   <si>
-    <t>POLRES  ROHUL</t>
+    <t>Riau</t>
   </si>
   <si>
-    <t>POLRES  TANGERANG KAB</t>
+    <t>Kepulauan Riau</t>
   </si>
   <si>
-    <t>POLRES  TANGERANG KAB (SATPAS PEMBANTU)</t>
+    <t>Jawa Timur</t>
   </si>
   <si>
-    <t>POLRES  TOLI-TOLI</t>
+    <t>Kalimantan Timur</t>
   </si>
   <si>
-    <t>POLRES  TOMOHON</t>
+    <t>Kalimantan Utara</t>
   </si>
   <si>
-    <t>POLRES 50 KOTA</t>
+    <t>Aceh</t>
   </si>
   <si>
-    <t>POLRES ABDYA</t>
+    <t>Papua Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH BARAT</t>
+    <t>Jawa Tengah</t>
   </si>
   <si>
-    <t>POLRES ACEH BESAR</t>
+    <t>Kalimantan Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH JAYA</t>
+    <t>Bali</t>
   </si>
   <si>
-    <t>POLRES ACEH SELATAN</t>
+    <t>Nusa Tenggara Timur</t>
   </si>
   <si>
-    <t>POLRES ACEH SINGKIL</t>
+    <t>Sumatera Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH TAMIANG</t>
+    <t>Papua</t>
   </si>
   <si>
-    <t>POLRES ACEH TENGAH</t>
+    <t>Bangka Belitung</t>
   </si>
   <si>
-    <t>POLRES ACEH TENGGARA</t>
+    <t>Nusa Tenggara Barat</t>
   </si>
   <si>
-    <t>POLRES ACEH TIMUR</t>
+    <t>Sulawesi Tenggara</t>
   </si>
   <si>
-    <t>POLRES ACEH UTARA</t>
+    <t>Metro Jaya</t>
   </si>
   <si>
-    <t>POLRES AGAM</t>
+    <t>Banten</t>
   </si>
   <si>
-    <t>POLRES ALOR</t>
+    <t>Kalimantan Selatan</t>
   </si>
   <si>
-    <t>POLRES AMBON</t>
+    <t>Sulawesi Utara</t>
   </si>
   <si>
-    <t>POLRES ASAHAN</t>
-  </si>
-  <si>
-    <t>POLRES ASMAT</t>
-  </si>
-  <si>
-    <t>POLRES BADUNG</t>
-  </si>
-  <si>
-    <t>POLRES BALANGAN</t>
-  </si>
-  <si>
-    <t>POLRES BALIKPAPAN</t>
-  </si>
-  <si>
-    <t>POLRES BANDUNG (SOREANG)</t>
-  </si>
-  <si>
-    <t>POLRES BANGGAI</t>
-  </si>
-  <si>
-    <t>POLRES BANGGAI KEPULAUAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES BANGKA SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGKALAN</t>
-  </si>
-  <si>
-    <t>POLRES BANGLI</t>
-  </si>
-  <si>
-    <t>POLRES BANJAR</t>
-  </si>
-  <si>
-    <t>POLRES BANJARBARU</t>
-  </si>
-  <si>
-    <t>POLRES BANJARNEGARA</t>
-  </si>
-  <si>
-    <t>POLRES BANTAENG</t>
-  </si>
-  <si>
-    <t>POLRES BANTUL</t>
-  </si>
-  <si>
-    <t>POLRES BANYUASIN</t>
-  </si>
-  <si>
-    <t>POLRES BANYUMAS</t>
-  </si>
-  <si>
-    <t>POLRES BANYUWANGI</t>
-  </si>
-  <si>
-    <t>POLRES BARITO KUALA</t>
-  </si>
-  <si>
-    <t>POLRES BARITO SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BARITO TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES BARITO UTARA</t>
-  </si>
-  <si>
-    <t>POLRES BARRU</t>
-  </si>
-  <si>
-    <t>POLRES BATANG</t>
-  </si>
-  <si>
-    <t>POLRES BATANG HARI</t>
-  </si>
-  <si>
-    <t>POLRES BATU</t>
-  </si>
-  <si>
-    <t>POLRES BATU BARA</t>
-  </si>
-  <si>
-    <t>POLRES BATURAJA (OKU)</t>
-  </si>
-  <si>
-    <t>POLRES BAU-BAU</t>
-  </si>
-  <si>
-    <t>POLRES BEKASI</t>
-  </si>
-  <si>
-    <t>POLRES BELAWAN</t>
-  </si>
-  <si>
-    <t>POLRES BELITUNG</t>
-  </si>
-  <si>
-    <t>POLRES BELITUNG TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES BELU</t>
-  </si>
-  <si>
-    <t>POLRES BENER MERIAH</t>
-  </si>
-  <si>
-    <t>POLRES BENGKALIS</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES BENGKULU UTARA</t>
-  </si>
-  <si>
-    <t>POLRES BERAU</t>
-  </si>
-  <si>
-    <t>POLRES BIAK NUMFOR</t>
-  </si>
-  <si>
-    <t>POLRES BIMA</t>
-  </si>
-  <si>
-    <t>POLRES BIMA KOTA</t>
-  </si>
-  <si>
-    <t>POLRES BINJAI</t>
-  </si>
-  <si>
-    <t>POLRES BIREUEN</t>
-  </si>
-  <si>
-    <t>POLRES BITUNG</t>
-  </si>
-  <si>
-    <t>POLRES BLITAR</t>
-  </si>
-  <si>
-    <t>POLRES BLORA</t>
-  </si>
-  <si>
-    <t>POLRES BOALEMO</t>
-  </si>
-  <si>
-    <t>POLRES BOGOR</t>
-  </si>
-  <si>
-    <t>POLRES BOJONEGORO</t>
-  </si>
-  <si>
-    <t>POLRES BOMBANA</t>
-  </si>
-  <si>
-    <t>POLRES BONDOWOSO</t>
-  </si>
-  <si>
-    <t>POLRES BONE</t>
-  </si>
-  <si>
-    <t>POLRES BONE BOLANGO</t>
-  </si>
-  <si>
-    <t>POLRES BONTANG</t>
-  </si>
-  <si>
-    <t>POLRES BOVEN DIGUL</t>
-  </si>
-  <si>
-    <t>POLRES BOYOLALI</t>
-  </si>
-  <si>
-    <t>POLRES BREBES</t>
-  </si>
-  <si>
-    <t>POLRES BUKIT TINGGI</t>
-  </si>
-  <si>
-    <t>POLRES BULELENG</t>
-  </si>
-  <si>
-    <t>POLRES BULUKUMBA</t>
-  </si>
-  <si>
-    <t>POLRES BULUNGAN</t>
-  </si>
-  <si>
-    <t>POLRES BUNGO</t>
-  </si>
-  <si>
-    <t>POLRES BUTON</t>
-  </si>
-  <si>
-    <t>POLRES BUTON UTARA</t>
-  </si>
-  <si>
-    <t>POLRES CIAMIS</t>
-  </si>
-  <si>
-    <t>POLRES CIANJUR</t>
-  </si>
-  <si>
-    <t>POLRES CILACAP</t>
-  </si>
-  <si>
-    <t>POLRES CILEGON</t>
-  </si>
-  <si>
-    <t>POLRES CIMAHI</t>
-  </si>
-  <si>
-    <t>POLRES CIREBON</t>
-  </si>
-  <si>
-    <t>POLRES DAIRI</t>
-  </si>
-  <si>
-    <t>POLRES DELI SERDANG</t>
-  </si>
-  <si>
-    <t>POLRES DEMAK</t>
-  </si>
-  <si>
-    <t>POLRES DHAMASRAYA</t>
-  </si>
-  <si>
-    <t>POLRES DOMPU</t>
-  </si>
-  <si>
-    <t>POLRES DONGGALA</t>
-  </si>
-  <si>
-    <t>POLRES DUMAI</t>
-  </si>
-  <si>
-    <t>POLRES EMPAT LAWANG</t>
-  </si>
-  <si>
-    <t>POLRES ENDE</t>
-  </si>
-  <si>
-    <t>POLRES ENREKANG</t>
-  </si>
-  <si>
-    <t>POLRES FAK-FAK</t>
-  </si>
-  <si>
-    <t>POLRES FLORES TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES GARUT</t>
-  </si>
-  <si>
-    <t>POLRES GAYO LUES</t>
-  </si>
-  <si>
-    <t>POLRES GIANYAR</t>
-  </si>
-  <si>
-    <t>POLRES GORONTALO UTARA</t>
-  </si>
-  <si>
-    <t>POLRES GOWA</t>
-  </si>
-  <si>
-    <t>POLRES GRESIK</t>
-  </si>
-  <si>
-    <t>POLRES GROBOGAN</t>
-  </si>
-  <si>
-    <t>POLRES GUNUNG KIDUL</t>
-  </si>
-  <si>
-    <t>POLRES GUNUNG MAS</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES HALMAHERA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES HULU SUNGAI UTARA</t>
-  </si>
-  <si>
-    <t>POLRES HUMBANG HASNUDI</t>
-  </si>
-  <si>
-    <t>POLRES INDRAMAYU</t>
-  </si>
-  <si>
-    <t>POLRES INHIL</t>
-  </si>
-  <si>
-    <t>POLRES INHU</t>
-  </si>
-  <si>
-    <t>POLRES JAYAPURA</t>
-  </si>
-  <si>
-    <t>POLRES JAYAWIJAYA</t>
-  </si>
-  <si>
-    <t>POLRES JEMBER</t>
-  </si>
-  <si>
-    <t>POLRES JEMBRANA</t>
-  </si>
-  <si>
-    <t>POLRES JENEPONTO</t>
-  </si>
-  <si>
-    <t>POLRES JEPARA</t>
-  </si>
-  <si>
-    <t>POLRES JOMBANG</t>
-  </si>
-  <si>
-    <t>POLRES KAB. GORONTALO (LIMBOTO)</t>
-  </si>
-  <si>
-    <t>POLRES KAIMANA</t>
-  </si>
-  <si>
-    <t>POLRES KAMPAR</t>
-  </si>
-  <si>
-    <t>POLRES KAPAHIANG</t>
-  </si>
-  <si>
-    <t>POLRES KAPUAS</t>
-  </si>
-  <si>
-    <t>POLRES KAPUAS HULU</t>
-  </si>
-  <si>
-    <t>POLRES KARANGANYAR</t>
-  </si>
-  <si>
-    <t>POLRES KARANGASEM</t>
-  </si>
-  <si>
-    <t>POLRES KARAWANG</t>
-  </si>
-  <si>
-    <t>POLRES KATINGAN</t>
-  </si>
-  <si>
-    <t>POLRES KAUR</t>
-  </si>
-  <si>
-    <t>POLRES KAYONG UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KEBUMEN</t>
-  </si>
-  <si>
-    <t>POLRES KEDIRI/PARE</t>
-  </si>
-  <si>
-    <t>POLRES KENDAL</t>
-  </si>
-  <si>
-    <t>POLRES KEPULAUAN ARU</t>
-  </si>
-  <si>
-    <t>POLRES KEPULAUAN SANANA</t>
-  </si>
-  <si>
-    <t>POLRES KERINCI</t>
-  </si>
-  <si>
-    <t>POLRES KEROM</t>
-  </si>
-  <si>
-    <t>POLRES KETAPANG</t>
-  </si>
-  <si>
-    <t>POLRES KLATEN</t>
-  </si>
-  <si>
-    <t>POLRES KLUNGKUNG</t>
-  </si>
-  <si>
-    <t>POLRES KONAWE UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KONSEL</t>
-  </si>
-  <si>
-    <t>POLRES KOTA BARU</t>
-  </si>
-  <si>
-    <t>POLRES KOTA BUMI LAMPUNG UTARA</t>
-  </si>
-  <si>
-    <t>POLRES KOTAWARINGIN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES KOTAWARINGIN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES KUANSING</t>
-  </si>
-  <si>
-    <t>POLRES KUDUS</t>
-  </si>
-  <si>
-    <t>POLRES KUKAR</t>
-  </si>
-  <si>
-    <t>POLRES KULON PROGO</t>
-  </si>
-  <si>
-    <t>POLRES KUNINGAN</t>
-  </si>
-  <si>
-    <t>POLRES KUPANG</t>
-  </si>
-  <si>
-    <t>POLRES KUPANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES KUTAI BARAT</t>
-  </si>
-  <si>
-    <t>POLRES KUTIM</t>
-  </si>
-  <si>
-    <t>POLRES LABUHAN BATU</t>
-  </si>
-  <si>
-    <t>POLRES LAHAT</t>
-  </si>
-  <si>
-    <t>POLRES LAMANDAU</t>
-  </si>
-  <si>
-    <t>POLRES LAMONGAN</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES LAMPUNG TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LANGKAT</t>
-  </si>
-  <si>
-    <t>POLRES LANGSA</t>
-  </si>
-  <si>
-    <t>POLRES LANI JAYA</t>
-  </si>
-  <si>
-    <t>POLRES LEBAK</t>
-  </si>
-  <si>
-    <t>POLRES LEBONG</t>
-  </si>
-  <si>
-    <t>POLRES LEMBATA</t>
-  </si>
-  <si>
-    <t>POLRES LHOKSEUMAWE</t>
-  </si>
-  <si>
-    <t>POLRES LIWA LAMPUNG BARAT</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK BARAT</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LOMBOK UTARA</t>
-  </si>
-  <si>
-    <t>POLRES LUBUKLINGGAU ( SIM SATPAS )</t>
-  </si>
-  <si>
-    <t>POLRES LUMAJANG</t>
-  </si>
-  <si>
-    <t>POLRES LUWU</t>
-  </si>
-  <si>
-    <t>POLRES LUWU TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES LUWU UTARA</t>
-  </si>
-  <si>
-    <t>POLRES MADINA</t>
-  </si>
-  <si>
-    <t>POLRES MADIUN</t>
-  </si>
-  <si>
-    <t>POLRES MAGELANG</t>
-  </si>
-  <si>
-    <t>POLRES MAGELANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES MAGETAN</t>
-  </si>
-  <si>
-    <t>POLRES MAJALENGKA</t>
-  </si>
-  <si>
-    <t>POLRES MAJENE</t>
-  </si>
-  <si>
-    <t>POLRES MALANG</t>
-  </si>
-  <si>
-    <t>POLRES MALINAU</t>
-  </si>
-  <si>
-    <t>POLRES MALUKU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES MALUKU TENGGARA</t>
-  </si>
-  <si>
-    <t>POLRES MAMASA</t>
-  </si>
-  <si>
-    <t>POLRES MAMBERAMO RAYA</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES MAMUJU UTARA (SATPAS PASANG KAYU)</t>
-  </si>
-  <si>
-    <t>POLRES MANGGARAI</t>
-  </si>
-  <si>
-    <t>POLRES MANGGARAI BARAT</t>
-  </si>
-  <si>
-    <t>POLRES MANOKWARI</t>
-  </si>
-  <si>
-    <t>POLRES MANOKWARI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES MAPPI</t>
-  </si>
-  <si>
-    <t>POLRES MAROS</t>
-  </si>
-  <si>
-    <t>POLRES MELAWI</t>
-  </si>
-  <si>
-    <t>POLRES MEMPAWAH</t>
-  </si>
-  <si>
-    <t>POLRES MENTAWAI</t>
-  </si>
-  <si>
-    <t>POLRES MERANGIN</t>
-  </si>
-  <si>
-    <t>POLRES MERANTI</t>
-  </si>
-  <si>
-    <t>POLRES MERAUKE</t>
-  </si>
-  <si>
-    <t>POLRES MESUJI</t>
-  </si>
-  <si>
-    <t>POLRES METRO</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAK PUS</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKBAR</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKSEL</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKTIM</t>
-  </si>
-  <si>
-    <t>POLRES METRO JAKUT</t>
-  </si>
-  <si>
-    <t>POLRES MINAHASA</t>
-  </si>
-  <si>
-    <t>POLRES MINAHASA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES MOJOKERTO</t>
-  </si>
-  <si>
-    <t>POLRES MOROTAI</t>
-  </si>
-  <si>
-    <t>POLRES MOROWALI</t>
-  </si>
-  <si>
-    <t>POLRES MTB</t>
-  </si>
-  <si>
-    <t>POLRES MUARA ENIM</t>
-  </si>
-  <si>
-    <t>POLRES MUARA JAMBI</t>
-  </si>
-  <si>
-    <t>POLRES MUKO MUKO</t>
-  </si>
-  <si>
-    <t>POLRES MUNA</t>
-  </si>
-  <si>
-    <t>POLRES MURUNG RAYA</t>
-  </si>
-  <si>
-    <t>POLRES MUSI RAWAS</t>
-  </si>
-  <si>
-    <t>POLRES MUSI RAWAS UTARA</t>
-  </si>
-  <si>
-    <t>POLRES NABIRE</t>
-  </si>
-  <si>
-    <t>POLRES NAGAN RAYA</t>
-  </si>
-  <si>
-    <t>POLRES NGADA</t>
-  </si>
-  <si>
-    <t>POLRES NGANJUK</t>
-  </si>
-  <si>
-    <t>POLRES NGAWI</t>
-  </si>
-  <si>
-    <t>POLRES NIAS</t>
-  </si>
-  <si>
-    <t>POLRES NIAS SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES NUNUKAN</t>
-  </si>
-  <si>
-    <t>POLRES OI (OGAN ILIR)</t>
-  </si>
-  <si>
-    <t>POLRES OKI</t>
-  </si>
-  <si>
-    <t>POLRES OKU SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES OKU TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES P. SIDEMPUAN</t>
-  </si>
-  <si>
-    <t>POLRES PACITAN</t>
-  </si>
-  <si>
-    <t>POLRES PADANG LAWAS</t>
-  </si>
-  <si>
-    <t>POLRES PAGAR ALAM</t>
-  </si>
-  <si>
-    <t>POLRES PAKPAK BARAT</t>
-  </si>
-  <si>
-    <t>POLRES PALOPO</t>
-  </si>
-  <si>
-    <t>POLRES PAMEKASAN</t>
-  </si>
-  <si>
-    <t>POLRES PANDEGLANG</t>
-  </si>
-  <si>
-    <t>POLRES PANGKAL PINANG</t>
-  </si>
-  <si>
-    <t>POLRES PANGKEP</t>
-  </si>
-  <si>
-    <t>POLRES PANIAI</t>
-  </si>
-  <si>
-    <t>POLRES PARE PARE</t>
-  </si>
-  <si>
-    <t>POLRES PARIAMAN</t>
-  </si>
-  <si>
-    <t>POLRES PARIMO</t>
-  </si>
-  <si>
-    <t>POLRES PASAMAN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES PASAMAN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES PASER</t>
-  </si>
-  <si>
-    <t>POLRES PASURUAN</t>
-  </si>
-  <si>
-    <t>POLRES PATI</t>
-  </si>
-  <si>
-    <t>POLRES PAYAKUMBUH</t>
-  </si>
-  <si>
-    <t>POLRES PD. PANJANG</t>
-  </si>
-  <si>
-    <t>POLRES PD. PARIAMAN KOTA</t>
-  </si>
-  <si>
-    <t>POLRES PEG BINTANG</t>
-  </si>
-  <si>
-    <t>POLRES PEKALONGAN</t>
-  </si>
-  <si>
-    <t>POLRES PEKALONGAN KOTA</t>
-  </si>
-  <si>
-    <t>POLRES PEMALANG</t>
-  </si>
-  <si>
-    <t>POLRES PEMATANG SIANTAR</t>
-  </si>
-  <si>
-    <t>POLRES PENAJAM PASER  UTARA</t>
-  </si>
-  <si>
-    <t>POLRES PENUKAL ABAB LEMATANG ILIR</t>
-  </si>
-  <si>
-    <t>POLRES PESAWARAN</t>
-  </si>
-  <si>
-    <t>POLRES PESISIR SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES PIDIE</t>
-  </si>
-  <si>
-    <t>POLRES PIDIE JAYA</t>
-  </si>
-  <si>
-    <t>POLRES PINRANG</t>
-  </si>
-  <si>
-    <t>POLRES POHUWATO</t>
-  </si>
-  <si>
-    <t>POLRES POLMAN</t>
-  </si>
-  <si>
-    <t>POLRES PONOROGO</t>
-  </si>
-  <si>
-    <t>POLRES PRABUMULIH</t>
-  </si>
-  <si>
-    <t>POLRES PRINGSEWU</t>
-  </si>
-  <si>
-    <t>POLRES PROBOLINGGO</t>
-  </si>
-  <si>
-    <t>POLRES PULANG PISAU</t>
-  </si>
-  <si>
-    <t>POLRES PULAU BURU</t>
-  </si>
-  <si>
-    <t>POLRES PUNCAK JAYA</t>
-  </si>
-  <si>
-    <t>POLRES PURBALINGGA</t>
-  </si>
-  <si>
-    <t>POLRES PURWAKARTA</t>
-  </si>
-  <si>
-    <t>POLRES PURWOREJO</t>
-  </si>
-  <si>
-    <t>POLRES RAJA AMPAT</t>
-  </si>
-  <si>
-    <t>POLRES REJANG LEBONG</t>
-  </si>
-  <si>
-    <t>POLRES REMBANG</t>
-  </si>
-  <si>
-    <t>POLRES ROHIL</t>
-  </si>
-  <si>
-    <t>POLRES ROTE NDAO</t>
-  </si>
-  <si>
-    <t>POLRES SABANG</t>
-  </si>
-  <si>
-    <t>POLRES SALATIGA</t>
-  </si>
-  <si>
-    <t>POLRES SAMBAS</t>
-  </si>
-  <si>
-    <t>POLRES SAMOSIR</t>
-  </si>
-  <si>
-    <t>POLRES SAMPANG</t>
-  </si>
-  <si>
-    <t>POLRES SANGGAU</t>
-  </si>
-  <si>
-    <t>POLRES SANGIHE</t>
-  </si>
-  <si>
-    <t>POLRES SARMI</t>
-  </si>
-  <si>
-    <t>POLRES SAWAHLUNTO</t>
-  </si>
-  <si>
-    <t>POLRES SEKADAU</t>
-  </si>
-  <si>
-    <t>POLRES SEKAYU ( MUSI BANYUASIN )</t>
-  </si>
-  <si>
-    <t>POLRES SELAYAR</t>
-  </si>
-  <si>
-    <t>POLRES SELUMA</t>
-  </si>
-  <si>
-    <t>POLRES SEMARANG</t>
-  </si>
-  <si>
-    <t>POLRES SERAM BAGIAN BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SERAM BAGIAN TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES SERANG</t>
-  </si>
-  <si>
-    <t>POLRES SERANG KOTA</t>
-  </si>
-  <si>
-    <t>POLRES SERDANG BEDAGAI</t>
-  </si>
-  <si>
-    <t>POLRES SERUYAN</t>
-  </si>
-  <si>
-    <t>POLRES SIAK</t>
-  </si>
-  <si>
-    <t>POLRES SIBOLGA</t>
-  </si>
-  <si>
-    <t>POLRES SIDOARJO</t>
-  </si>
-  <si>
-    <t>POLRES SIDRAP</t>
-  </si>
-  <si>
-    <t>POLRES SIGI</t>
-  </si>
-  <si>
-    <t>POLRES SIJUNJUNG</t>
-  </si>
-  <si>
-    <t>POLRES SIKKA</t>
-  </si>
-  <si>
-    <t>POLRES SIMALUNGUN</t>
-  </si>
-  <si>
-    <t>POLRES SIMELEU</t>
-  </si>
-  <si>
-    <t>POLRES SINGKAWANG</t>
-  </si>
-  <si>
-    <t>POLRES SINJAI</t>
-  </si>
-  <si>
-    <t>POLRES SINTANG</t>
-  </si>
-  <si>
-    <t>POLRES SITUBONDO</t>
-  </si>
-  <si>
-    <t>POLRES SLEMAN</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK KOTA</t>
-  </si>
-  <si>
-    <t>POLRES SOLOK SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES SOPPENG</t>
-  </si>
-  <si>
-    <t>POLRES SOROLANGUN</t>
-  </si>
-  <si>
-    <t>POLRES SORONG AIMAS</t>
-  </si>
-  <si>
-    <t>POLRES SORONG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES SRAGEN</t>
-  </si>
-  <si>
-    <t>POLRES SUBANG</t>
-  </si>
-  <si>
-    <t>POLRES SUBULUS SALAM</t>
-  </si>
-  <si>
-    <t>POLRES SUKABUMI (PALABUHAN RATU)</t>
-  </si>
-  <si>
-    <t>POLRES SUKAMARA</t>
-  </si>
-  <si>
-    <t>POLRES SUKOHARJO</t>
-  </si>
-  <si>
-    <t>POLRES SUMBA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SUMBA TIMUR</t>
-  </si>
-  <si>
-    <t>POLRES SUMBAWA BARAT</t>
-  </si>
-  <si>
-    <t>POLRES SUMBAWA BESAR</t>
-  </si>
-  <si>
-    <t>POLRES SUMEDANG</t>
-  </si>
-  <si>
-    <t>POLRES SUMENEP</t>
-  </si>
-  <si>
-    <t>POLRES SUPIORI</t>
-  </si>
-  <si>
-    <t>POLRES SURAKARTA</t>
-  </si>
-  <si>
-    <t>POLRES TABALONG</t>
-  </si>
-  <si>
-    <t>POLRES TABANAN</t>
-  </si>
-  <si>
-    <t>POLRES TAKALAR</t>
-  </si>
-  <si>
-    <t>POLRES TALAUD</t>
-  </si>
-  <si>
-    <t>POLRES TANA TORAJA</t>
-  </si>
-  <si>
-    <t>POLRES TANAH BUMBU</t>
-  </si>
-  <si>
-    <t>POLRES TANAH DATAR</t>
-  </si>
-  <si>
-    <t>POLRES TANAH KARO</t>
-  </si>
-  <si>
-    <t>POLRES TANAH LAUT</t>
-  </si>
-  <si>
-    <t>POLRES TANGERANG SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TANGGAMUS</t>
-  </si>
-  <si>
-    <t>POLRES TANJABAR</t>
-  </si>
-  <si>
-    <t>POLRES TANJABTIM</t>
-  </si>
-  <si>
-    <t>POLRES TANJUNG BALAI</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI TENGAH</t>
-  </si>
-  <si>
-    <t>POLRES TAPANULI UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TAPIN</t>
-  </si>
-  <si>
-    <t>POLRES TARAKAN</t>
-  </si>
-  <si>
-    <t>POLRES TASIKMALAYA</t>
-  </si>
-  <si>
-    <t>POLRES TEBING TINGGI</t>
-  </si>
-  <si>
-    <t>POLRES TEBO</t>
-  </si>
-  <si>
-    <t>POLRES TEGAL</t>
-  </si>
-  <si>
-    <t>POLRES TEGAL KOTA</t>
-  </si>
-  <si>
-    <t>POLRES TELUK BINTUNI</t>
-  </si>
-  <si>
-    <t>POLRES TELUK WONDOMA</t>
-  </si>
-  <si>
-    <t>POLRES TEMANGGUNG</t>
-  </si>
-  <si>
-    <t>POLRES TERNATE</t>
-  </si>
-  <si>
-    <t>POLRES TIDORE</t>
-  </si>
-  <si>
-    <t>POLRES TIMIKA</t>
-  </si>
-  <si>
-    <t>POLRES TIMUR TENGAH SELATAN</t>
-  </si>
-  <si>
-    <t>POLRES TIMUR TENGAH UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TOBA SAMOSIR</t>
-  </si>
-  <si>
-    <t>POLRES TOJO UNA-UNA</t>
-  </si>
-  <si>
-    <t>POLRES TOLIKARA</t>
-  </si>
-  <si>
-    <t>POLRES TORAJA UTARA</t>
-  </si>
-  <si>
-    <t>POLRES TRENGGALEK</t>
-  </si>
-  <si>
-    <t>POLRES TUBAN</t>
-  </si>
-  <si>
-    <t>POLRES TULANG BAWANG</t>
-  </si>
-  <si>
-    <t>POLRES TULANG BAWANG BARAT</t>
-  </si>
-  <si>
-    <t>POLRES TULUNGAGUNG</t>
-  </si>
-  <si>
-    <t>POLRES WAJO</t>
-  </si>
-  <si>
-    <t>POLRES WAKATOBI</t>
-  </si>
-  <si>
-    <t>POLRES WAROPEN</t>
-  </si>
-  <si>
-    <t>POLRES WAYKANAN</t>
-  </si>
-  <si>
-    <t>POLRES WONOGIRI</t>
-  </si>
-  <si>
-    <t>POLRES WONOSOBO</t>
-  </si>
-  <si>
-    <t>POLRES YAHUKIMO</t>
-  </si>
-  <si>
-    <t>POLRES YAPEN</t>
-  </si>
-  <si>
-    <t>POLRESTA BANDA ACEH</t>
-  </si>
-  <si>
-    <t>POLRESTA BANDAR LAMPUNG</t>
-  </si>
-  <si>
-    <t>POLRESTA BANJARMASIN</t>
-  </si>
-  <si>
-    <t>POLRESTA BENGKULU</t>
-  </si>
-  <si>
-    <t>POLRESTA BLITAR</t>
-  </si>
-  <si>
-    <t>POLRESTA BOGOR</t>
-  </si>
-  <si>
-    <t>POLRESTA CIREBON</t>
-  </si>
-  <si>
-    <t>POLRESTA DENPASAR</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK PASAR SEGAR</t>
-  </si>
-  <si>
-    <t>POLRESTA DEPOK SATPAS CINERE</t>
-  </si>
-  <si>
-    <t>POLRESTA GORONTALO</t>
-  </si>
-  <si>
-    <t>POLRESTA JAMBI</t>
-  </si>
-  <si>
-    <t>POLRESTA JAYAPURA</t>
-  </si>
-  <si>
-    <t>POLRESTA KEDIRI</t>
-  </si>
-  <si>
-    <t>POLRESTA KENDARI</t>
-  </si>
-  <si>
-    <t>POLRESTA MADIUN</t>
-  </si>
-  <si>
-    <t>POLRESTA MALANG</t>
-  </si>
-  <si>
-    <t>POLRESTA MANADO</t>
-  </si>
-  <si>
-    <t>POLRESTA MATARAM</t>
-  </si>
-  <si>
-    <t>POLRESTA MOJOKERTO</t>
-  </si>
-  <si>
-    <t>POLRESTA PADANG</t>
-  </si>
-  <si>
-    <t>POLRESTA PALANGAKA RAYA</t>
-  </si>
-  <si>
-    <t>POLRESTA PALEMBANG ( SIM SATPAS )</t>
-  </si>
-  <si>
-    <t>POLRESTA PALU</t>
-  </si>
-  <si>
-    <t>POLRESTA PASURUAN</t>
-  </si>
-  <si>
-    <t>POLRESTA PEKANBARU</t>
-  </si>
-  <si>
-    <t>POLRESTA PONTIANAK</t>
-  </si>
-  <si>
-    <t>POLRESTA PROBOLINGGO</t>
-  </si>
-  <si>
-    <t>POLRESTA SAMARINDA</t>
-  </si>
-  <si>
-    <t>POLRESTA SORONG</t>
-  </si>
-  <si>
-    <t>POLRESTA SUKABUMI</t>
-  </si>
-  <si>
-    <t>POLRESTA TANGERANG</t>
-  </si>
-  <si>
-    <t>POLRESTA TASIKMALAYA</t>
-  </si>
-  <si>
-    <t>POLRESTA YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>POLRESTABES BANDUNG</t>
-  </si>
-  <si>
-    <t>POLRESTABES MAKASSAR</t>
-  </si>
-  <si>
-    <t>POLRESTABES MEDAN</t>
-  </si>
-  <si>
-    <t>POLRESTABES SEMARANG</t>
-  </si>
-  <si>
-    <t>POLRESTABES SURABAYA</t>
-  </si>
-  <si>
-    <t>POLRESTRO BEKASI KOTA</t>
+    <t>Kalimantan Tengah</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +751,7 @@
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -2064,7 +771,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2084,7 +791,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2104,7 +811,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2124,7 +831,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2144,7 +851,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -2164,7 +871,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +891,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -2204,7 +911,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -2224,7 +931,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2244,7 +951,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -2264,7 +971,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -2284,7 +991,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -2304,7 +1011,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -2324,7 +1031,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -2344,7 +1051,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2364,7 +1071,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2384,7 +1091,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2404,7 +1111,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -2424,7 +1131,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -2444,7 +1151,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -2464,7 +1171,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -2483,9 +1190,7 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" s="14" t="s">
-        <v>36</v>
-      </c>
+      <c r="P35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="12"/>
@@ -2503,9 +1208,7 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="P36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="12"/>
@@ -2523,9 +1226,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="P37" s="14"/>
     </row>
     <row r="38">
       <c r="A38" s="12"/>
@@ -2543,9 +1244,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
-      <c r="P38" s="14" t="s">
-        <v>39</v>
-      </c>
+      <c r="P38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="12"/>
@@ -2563,9 +1262,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
-      <c r="P39" s="14" t="s">
-        <v>40</v>
-      </c>
+      <c r="P39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="12"/>
@@ -2583,9 +1280,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
-      <c r="P40" s="14" t="s">
-        <v>41</v>
-      </c>
+      <c r="P40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="12"/>
@@ -2603,9 +1298,7 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="P41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="12"/>
@@ -2623,9 +1316,7 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
-      <c r="P42" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="P42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="12"/>
@@ -2643,9 +1334,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="P43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="12"/>
@@ -2663,9 +1352,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="14" t="s">
-        <v>45</v>
-      </c>
+      <c r="P44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="12"/>
@@ -2683,9 +1370,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
-      <c r="P45" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="P45" s="14"/>
     </row>
     <row r="46">
       <c r="A46" s="12"/>
@@ -2703,9 +1388,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
-      <c r="P46" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="P46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="12"/>
@@ -2723,9 +1406,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
-      <c r="P47" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="P47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="12"/>
@@ -2743,9 +1424,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
-      <c r="P48" s="14" t="s">
-        <v>49</v>
-      </c>
+      <c r="P48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="12"/>
@@ -2763,9 +1442,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
-      <c r="P49" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="P49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="12"/>
@@ -2783,9 +1460,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
-      <c r="P50" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="P50" s="14"/>
     </row>
     <row r="51">
       <c r="A51" s="12"/>
@@ -2803,9 +1478,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
-      <c r="P51" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="P51" s="14"/>
     </row>
     <row r="52">
       <c r="A52" s="12"/>
@@ -2823,9 +1496,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
-      <c r="P52" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="P52" s="14"/>
     </row>
     <row r="53">
       <c r="A53" s="12"/>
@@ -2843,9 +1514,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
-      <c r="P53" s="14" t="s">
-        <v>53</v>
-      </c>
+      <c r="P53" s="14"/>
     </row>
     <row r="54">
       <c r="A54" s="12"/>
@@ -2863,9 +1532,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
-      <c r="P54" s="14" t="s">
-        <v>54</v>
-      </c>
+      <c r="P54" s="14"/>
     </row>
     <row r="55">
       <c r="A55" s="12"/>
@@ -2883,9 +1550,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
-      <c r="P55" s="14" t="s">
-        <v>55</v>
-      </c>
+      <c r="P55" s="14"/>
     </row>
     <row r="56">
       <c r="A56" s="12"/>
@@ -2903,9 +1568,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
-      <c r="P56" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="P56" s="14"/>
     </row>
     <row r="57">
       <c r="A57" s="12"/>
@@ -2923,9 +1586,7 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
-      <c r="P57" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="P57" s="14"/>
     </row>
     <row r="58">
       <c r="A58" s="12"/>
@@ -2943,9 +1604,7 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
-      <c r="P58" s="14" t="s">
-        <v>58</v>
-      </c>
+      <c r="P58" s="14"/>
     </row>
     <row r="59">
       <c r="A59" s="12"/>
@@ -2963,9 +1622,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
-      <c r="P59" s="14" t="s">
-        <v>59</v>
-      </c>
+      <c r="P59" s="14"/>
     </row>
     <row r="60">
       <c r="A60" s="12"/>
@@ -2983,9 +1640,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
-      <c r="P60" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="P60" s="14"/>
     </row>
     <row r="61">
       <c r="A61" s="12"/>
@@ -3003,9 +1658,7 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
-      <c r="P61" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="P61" s="14"/>
     </row>
     <row r="62">
       <c r="A62" s="12"/>
@@ -3023,9 +1676,7 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
-      <c r="P62" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="P62" s="14"/>
     </row>
     <row r="63">
       <c r="A63" s="12"/>
@@ -3043,9 +1694,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
-      <c r="P63" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="P63" s="14"/>
     </row>
     <row r="64">
       <c r="A64" s="12"/>
@@ -3063,9 +1712,7 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
-      <c r="P64" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="P64" s="14"/>
     </row>
     <row r="65">
       <c r="A65" s="12"/>
@@ -3083,9 +1730,7 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
-      <c r="P65" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="P65" s="14"/>
     </row>
     <row r="66">
       <c r="A66" s="12"/>
@@ -3103,9 +1748,7 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
-      <c r="P66" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="P66" s="14"/>
     </row>
     <row r="67">
       <c r="A67" s="12"/>
@@ -3123,9 +1766,7 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
-      <c r="P67" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="P67" s="14"/>
     </row>
     <row r="68">
       <c r="A68" s="12"/>
@@ -3143,9 +1784,7 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
-      <c r="P68" s="14" t="s">
-        <v>68</v>
-      </c>
+      <c r="P68" s="14"/>
     </row>
     <row r="69">
       <c r="A69" s="12"/>
@@ -3163,9 +1802,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
-      <c r="P69" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="P69" s="14"/>
     </row>
     <row r="70">
       <c r="A70" s="12"/>
@@ -3183,9 +1820,7 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
-      <c r="P70" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="P70" s="14"/>
     </row>
     <row r="71">
       <c r="A71" s="12"/>
@@ -3203,9 +1838,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
-      <c r="P71" s="14" t="s">
-        <v>71</v>
-      </c>
+      <c r="P71" s="14"/>
     </row>
     <row r="72">
       <c r="A72" s="12"/>
@@ -3223,9 +1856,7 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
-      <c r="P72" s="14" t="s">
-        <v>72</v>
-      </c>
+      <c r="P72" s="14"/>
     </row>
     <row r="73">
       <c r="A73" s="12"/>
@@ -3243,9 +1874,7 @@
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="P73" s="14"/>
     </row>
     <row r="74">
       <c r="A74" s="12"/>
@@ -3263,9 +1892,7 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="14" t="s">
-        <v>74</v>
-      </c>
+      <c r="P74" s="14"/>
     </row>
     <row r="75">
       <c r="A75" s="12"/>
@@ -3283,9 +1910,7 @@
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
-      <c r="P75" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="P75" s="14"/>
     </row>
     <row r="76">
       <c r="A76" s="12"/>
@@ -3303,9 +1928,7 @@
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
-      <c r="P76" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="P76" s="14"/>
     </row>
     <row r="77">
       <c r="A77" s="12"/>
@@ -3323,9 +1946,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
-      <c r="P77" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="P77" s="14"/>
     </row>
     <row r="78">
       <c r="A78" s="12"/>
@@ -3343,9 +1964,7 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="14" t="s">
-        <v>77</v>
-      </c>
+      <c r="P78" s="14"/>
     </row>
     <row r="79">
       <c r="A79" s="12"/>
@@ -3363,9 +1982,7 @@
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
-      <c r="P79" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="P79" s="14"/>
     </row>
     <row r="80">
       <c r="A80" s="12"/>
@@ -3383,9 +2000,7 @@
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
-      <c r="P80" s="14" t="s">
-        <v>79</v>
-      </c>
+      <c r="P80" s="14"/>
     </row>
     <row r="81">
       <c r="A81" s="12"/>
@@ -3403,9 +2018,7 @@
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
-      <c r="P81" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="P81" s="14"/>
     </row>
     <row r="82">
       <c r="A82" s="12"/>
@@ -3423,9 +2036,7 @@
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
-      <c r="P82" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="P82" s="14"/>
     </row>
     <row r="83">
       <c r="A83" s="12"/>
@@ -3443,9 +2054,7 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
-      <c r="P83" s="14" t="s">
-        <v>82</v>
-      </c>
+      <c r="P83" s="14"/>
     </row>
     <row r="84">
       <c r="A84" s="12"/>
@@ -3463,9 +2072,7 @@
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
-      <c r="P84" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="P84" s="14"/>
     </row>
     <row r="85">
       <c r="A85" s="12"/>
@@ -3483,9 +2090,7 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
-      <c r="P85" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="P85" s="14"/>
     </row>
     <row r="86">
       <c r="A86" s="12"/>
@@ -3503,9 +2108,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
-      <c r="P86" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="P86" s="14"/>
     </row>
     <row r="87">
       <c r="A87" s="12"/>
@@ -3523,9 +2126,7 @@
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
-      <c r="P87" s="14" t="s">
-        <v>86</v>
-      </c>
+      <c r="P87" s="14"/>
     </row>
     <row r="88">
       <c r="A88" s="12"/>
@@ -3543,9 +2144,7 @@
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
-      <c r="P88" s="14" t="s">
-        <v>87</v>
-      </c>
+      <c r="P88" s="14"/>
     </row>
     <row r="89">
       <c r="A89" s="12"/>
@@ -3563,9 +2162,7 @@
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
-      <c r="P89" s="14" t="s">
-        <v>88</v>
-      </c>
+      <c r="P89" s="14"/>
     </row>
     <row r="90">
       <c r="A90" s="12"/>
@@ -3583,9 +2180,7 @@
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
-      <c r="P90" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="P90" s="14"/>
     </row>
     <row r="91">
       <c r="A91" s="12"/>
@@ -3603,9 +2198,7 @@
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
-      <c r="P91" s="14" t="s">
-        <v>90</v>
-      </c>
+      <c r="P91" s="14"/>
     </row>
     <row r="92">
       <c r="A92" s="12"/>
@@ -3623,9 +2216,7 @@
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
-      <c r="P92" s="14" t="s">
-        <v>91</v>
-      </c>
+      <c r="P92" s="14"/>
     </row>
     <row r="93">
       <c r="A93" s="12"/>
@@ -3643,9 +2234,7 @@
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
-      <c r="P93" s="14" t="s">
-        <v>92</v>
-      </c>
+      <c r="P93" s="14"/>
     </row>
     <row r="94">
       <c r="A94" s="12"/>
@@ -3663,9 +2252,7 @@
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
-      <c r="P94" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="P94" s="14"/>
     </row>
     <row r="95">
       <c r="A95" s="12"/>
@@ -3683,9 +2270,7 @@
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
-      <c r="P95" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="P95" s="14"/>
     </row>
     <row r="96">
       <c r="A96" s="12"/>
@@ -3703,9 +2288,7 @@
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
-      <c r="P96" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="P96" s="14"/>
     </row>
     <row r="97">
       <c r="A97" s="12"/>
@@ -3723,9 +2306,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
-      <c r="P97" s="14" t="s">
-        <v>96</v>
-      </c>
+      <c r="P97" s="14"/>
     </row>
     <row r="98">
       <c r="A98" s="12"/>
@@ -3743,9 +2324,7 @@
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
-      <c r="P98" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="P98" s="14"/>
     </row>
     <row r="99">
       <c r="A99" s="12"/>
@@ -3763,9 +2342,7 @@
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
-      <c r="P99" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="P99" s="14"/>
     </row>
     <row r="100">
       <c r="A100" s="12"/>
@@ -3783,9 +2360,7 @@
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
-      <c r="P100" s="14" t="s">
-        <v>99</v>
-      </c>
+      <c r="P100" s="14"/>
     </row>
     <row r="101">
       <c r="A101" s="12"/>
@@ -3803,9 +2378,7 @@
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
-      <c r="P101" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="P101" s="14"/>
     </row>
     <row r="102">
       <c r="A102" s="12"/>
@@ -3823,9 +2396,7 @@
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
-      <c r="P102" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="P102" s="14"/>
     </row>
     <row r="103">
       <c r="A103" s="12"/>
@@ -3843,9 +2414,7 @@
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
-      <c r="P103" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="P103" s="14"/>
     </row>
     <row r="104">
       <c r="A104" s="12"/>
@@ -3863,9 +2432,7 @@
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
-      <c r="P104" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="P104" s="14"/>
     </row>
     <row r="105">
       <c r="A105" s="12"/>
@@ -3883,9 +2450,7 @@
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
-      <c r="P105" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="P105" s="14"/>
     </row>
     <row r="106">
       <c r="A106" s="12"/>
@@ -3903,9 +2468,7 @@
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
-      <c r="P106" s="14" t="s">
-        <v>105</v>
-      </c>
+      <c r="P106" s="14"/>
     </row>
     <row r="107">
       <c r="A107" s="12"/>
@@ -3923,9 +2486,7 @@
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="P107" s="14"/>
     </row>
     <row r="108">
       <c r="A108" s="12"/>
@@ -3943,9 +2504,7 @@
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
-      <c r="P108" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="P108" s="14"/>
     </row>
     <row r="109">
       <c r="A109" s="12"/>
@@ -3963,9 +2522,7 @@
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
-      <c r="P109" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="P109" s="14"/>
     </row>
     <row r="110">
       <c r="A110" s="12"/>
@@ -3983,9 +2540,7 @@
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
-      <c r="P110" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="P110" s="14"/>
     </row>
     <row r="111">
       <c r="A111" s="12"/>
@@ -4003,9 +2558,7 @@
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
-      <c r="P111" s="14" t="s">
-        <v>110</v>
-      </c>
+      <c r="P111" s="14"/>
     </row>
     <row r="112">
       <c r="A112" s="12"/>
@@ -4023,9 +2576,7 @@
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
-      <c r="P112" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="P112" s="14"/>
     </row>
     <row r="113">
       <c r="A113" s="12"/>
@@ -4043,9 +2594,7 @@
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13"/>
-      <c r="P113" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="P113" s="14"/>
     </row>
     <row r="114">
       <c r="A114" s="12"/>
@@ -4063,9 +2612,7 @@
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
-      <c r="P114" s="14" t="s">
-        <v>113</v>
-      </c>
+      <c r="P114" s="14"/>
     </row>
     <row r="115">
       <c r="A115" s="12"/>
@@ -4083,9 +2630,7 @@
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
-      <c r="P115" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="P115" s="14"/>
     </row>
     <row r="116">
       <c r="A116" s="12"/>
@@ -4103,9 +2648,7 @@
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
-      <c r="P116" s="14" t="s">
-        <v>115</v>
-      </c>
+      <c r="P116" s="14"/>
     </row>
     <row r="117">
       <c r="A117" s="12"/>
@@ -4123,9 +2666,7 @@
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
-      <c r="P117" s="14" t="s">
-        <v>116</v>
-      </c>
+      <c r="P117" s="14"/>
     </row>
     <row r="118">
       <c r="A118" s="12"/>
@@ -4143,9 +2684,7 @@
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
-      <c r="P118" s="14" t="s">
-        <v>117</v>
-      </c>
+      <c r="P118" s="14"/>
     </row>
     <row r="119">
       <c r="A119" s="12"/>
@@ -4163,9 +2702,7 @@
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
-      <c r="P119" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="P119" s="14"/>
     </row>
     <row r="120">
       <c r="A120" s="12"/>
@@ -4183,9 +2720,7 @@
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
-      <c r="P120" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="P120" s="14"/>
     </row>
     <row r="121">
       <c r="A121" s="12"/>
@@ -4203,9 +2738,7 @@
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
-      <c r="P121" s="14" t="s">
-        <v>119</v>
-      </c>
+      <c r="P121" s="14"/>
     </row>
     <row r="122">
       <c r="A122" s="12"/>
@@ -4223,9 +2756,7 @@
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
-      <c r="P122" s="14" t="s">
-        <v>120</v>
-      </c>
+      <c r="P122" s="14"/>
     </row>
     <row r="123">
       <c r="A123" s="12"/>
@@ -4243,9 +2774,7 @@
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
-      <c r="P123" s="14" t="s">
-        <v>121</v>
-      </c>
+      <c r="P123" s="14"/>
     </row>
     <row r="124">
       <c r="A124" s="12"/>
@@ -4263,9 +2792,7 @@
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
-      <c r="P124" s="14" t="s">
-        <v>122</v>
-      </c>
+      <c r="P124" s="14"/>
     </row>
     <row r="125">
       <c r="A125" s="12"/>
@@ -4283,9 +2810,7 @@
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
-      <c r="P125" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="P125" s="14"/>
     </row>
     <row r="126">
       <c r="A126" s="12"/>
@@ -4303,9 +2828,7 @@
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
-      <c r="P126" s="14" t="s">
-        <v>124</v>
-      </c>
+      <c r="P126" s="14"/>
     </row>
     <row r="127">
       <c r="A127" s="12"/>
@@ -4323,9 +2846,7 @@
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
-      <c r="P127" s="14" t="s">
-        <v>125</v>
-      </c>
+      <c r="P127" s="14"/>
     </row>
     <row r="128">
       <c r="A128" s="12"/>
@@ -4343,9 +2864,7 @@
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
-      <c r="P128" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="P128" s="14"/>
     </row>
     <row r="129">
       <c r="A129" s="12"/>
@@ -4363,9 +2882,7 @@
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
-      <c r="P129" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="P129" s="14"/>
     </row>
     <row r="130">
       <c r="A130" s="12"/>
@@ -4383,9 +2900,7 @@
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
-      <c r="P130" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="P130" s="14"/>
     </row>
     <row r="131">
       <c r="A131" s="12"/>
@@ -4403,9 +2918,7 @@
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
-      <c r="P131" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="P131" s="14"/>
     </row>
     <row r="132">
       <c r="A132" s="12"/>
@@ -4423,9 +2936,7 @@
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
-      <c r="P132" s="14" t="s">
-        <v>130</v>
-      </c>
+      <c r="P132" s="14"/>
     </row>
     <row r="133">
       <c r="A133" s="12"/>
@@ -4443,9 +2954,7 @@
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
-      <c r="P133" s="14" t="s">
-        <v>131</v>
-      </c>
+      <c r="P133" s="14"/>
     </row>
     <row r="134">
       <c r="A134" s="12"/>
@@ -4463,9 +2972,7 @@
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
-      <c r="P134" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="P134" s="14"/>
     </row>
     <row r="135">
       <c r="A135" s="12"/>
@@ -4483,9 +2990,7 @@
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
-      <c r="P135" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="P135" s="14"/>
     </row>
     <row r="136">
       <c r="A136" s="12"/>
@@ -4503,9 +3008,7 @@
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
-      <c r="P136" s="14" t="s">
-        <v>134</v>
-      </c>
+      <c r="P136" s="14"/>
     </row>
     <row r="137">
       <c r="A137" s="12"/>
@@ -4523,9 +3026,7 @@
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
-      <c r="P137" s="14" t="s">
-        <v>135</v>
-      </c>
+      <c r="P137" s="14"/>
     </row>
     <row r="138">
       <c r="A138" s="12"/>
@@ -4543,9 +3044,7 @@
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
-      <c r="P138" s="14" t="s">
-        <v>136</v>
-      </c>
+      <c r="P138" s="14"/>
     </row>
     <row r="139">
       <c r="A139" s="12"/>
@@ -4563,9 +3062,7 @@
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
-      <c r="P139" s="14" t="s">
-        <v>137</v>
-      </c>
+      <c r="P139" s="14"/>
     </row>
     <row r="140">
       <c r="A140" s="12"/>
@@ -4583,9 +3080,7 @@
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
-      <c r="P140" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="P140" s="14"/>
     </row>
     <row r="141">
       <c r="A141" s="12"/>
@@ -4603,9 +3098,7 @@
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
-      <c r="P141" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="P141" s="14"/>
     </row>
     <row r="142">
       <c r="A142" s="12"/>
@@ -4623,9 +3116,7 @@
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
-      <c r="P142" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="P142" s="14"/>
     </row>
     <row r="143">
       <c r="A143" s="12"/>
@@ -4643,9 +3134,7 @@
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
-      <c r="P143" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="P143" s="14"/>
     </row>
     <row r="144">
       <c r="A144" s="12"/>
@@ -4663,9 +3152,7 @@
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
-      <c r="P144" s="14" t="s">
-        <v>142</v>
-      </c>
+      <c r="P144" s="14"/>
     </row>
     <row r="145">
       <c r="A145" s="12"/>
@@ -4683,9 +3170,7 @@
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
-      <c r="P145" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="P145" s="14"/>
     </row>
     <row r="146">
       <c r="A146" s="12"/>
@@ -4703,9 +3188,7 @@
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
-      <c r="P146" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="P146" s="14"/>
     </row>
     <row r="147">
       <c r="A147" s="12"/>
@@ -4723,9 +3206,7 @@
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
-      <c r="P147" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="P147" s="14"/>
     </row>
     <row r="148">
       <c r="A148" s="12"/>
@@ -4743,9 +3224,7 @@
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
-      <c r="P148" s="14" t="s">
-        <v>144</v>
-      </c>
+      <c r="P148" s="14"/>
     </row>
     <row r="149">
       <c r="A149" s="12"/>
@@ -4763,9 +3242,7 @@
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
-      <c r="P149" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="P149" s="14"/>
     </row>
     <row r="150">
       <c r="A150" s="12"/>
@@ -4783,9 +3260,7 @@
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
-      <c r="P150" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="P150" s="14"/>
     </row>
     <row r="151">
       <c r="A151" s="12"/>
@@ -4803,9 +3278,7 @@
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
-      <c r="P151" s="14" t="s">
-        <v>147</v>
-      </c>
+      <c r="P151" s="14"/>
     </row>
     <row r="152">
       <c r="A152" s="12"/>
@@ -4823,9 +3296,7 @@
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
-      <c r="P152" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="P152" s="14"/>
     </row>
     <row r="153">
       <c r="A153" s="12"/>
@@ -4843,9 +3314,7 @@
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
-      <c r="P153" s="14" t="s">
-        <v>149</v>
-      </c>
+      <c r="P153" s="14"/>
     </row>
     <row r="154">
       <c r="A154" s="12"/>
@@ -4863,9 +3332,7 @@
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
-      <c r="P154" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="P154" s="14"/>
     </row>
     <row r="155">
       <c r="A155" s="12"/>
@@ -4883,9 +3350,7 @@
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
-      <c r="P155" s="14" t="s">
-        <v>151</v>
-      </c>
+      <c r="P155" s="14"/>
     </row>
     <row r="156">
       <c r="A156" s="12"/>
@@ -4903,9 +3368,7 @@
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
-      <c r="P156" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="P156" s="14"/>
     </row>
     <row r="157">
       <c r="A157" s="12"/>
@@ -4923,9 +3386,7 @@
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
-      <c r="P157" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="P157" s="14"/>
     </row>
     <row r="158">
       <c r="A158" s="12"/>
@@ -4943,9 +3404,7 @@
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
-      <c r="P158" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="P158" s="14"/>
     </row>
     <row r="159">
       <c r="A159" s="12"/>
@@ -4963,9 +3422,7 @@
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
-      <c r="P159" s="14" t="s">
-        <v>154</v>
-      </c>
+      <c r="P159" s="14"/>
     </row>
     <row r="160">
       <c r="A160" s="12"/>
@@ -4983,9 +3440,7 @@
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
-      <c r="P160" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="P160" s="14"/>
     </row>
     <row r="161">
       <c r="A161" s="12"/>
@@ -5003,9 +3458,7 @@
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
-      <c r="P161" s="14" t="s">
-        <v>156</v>
-      </c>
+      <c r="P161" s="14"/>
     </row>
     <row r="162">
       <c r="A162" s="12"/>
@@ -5023,9 +3476,7 @@
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
-      <c r="P162" s="14" t="s">
-        <v>157</v>
-      </c>
+      <c r="P162" s="14"/>
     </row>
     <row r="163">
       <c r="A163" s="12"/>
@@ -5043,9 +3494,7 @@
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
-      <c r="P163" s="14" t="s">
-        <v>158</v>
-      </c>
+      <c r="P163" s="14"/>
     </row>
     <row r="164">
       <c r="A164" s="12"/>
@@ -5063,9 +3512,7 @@
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
-      <c r="P164" s="14" t="s">
-        <v>159</v>
-      </c>
+      <c r="P164" s="14"/>
     </row>
     <row r="165">
       <c r="A165" s="12"/>
@@ -5083,9 +3530,7 @@
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
-      <c r="P165" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="P165" s="14"/>
     </row>
     <row r="166">
       <c r="A166" s="12"/>
@@ -5103,9 +3548,7 @@
       <c r="M166" s="13"/>
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
-      <c r="P166" s="14" t="s">
-        <v>161</v>
-      </c>
+      <c r="P166" s="14"/>
     </row>
     <row r="167">
       <c r="A167" s="12"/>
@@ -5123,9 +3566,7 @@
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
-      <c r="P167" s="14" t="s">
-        <v>162</v>
-      </c>
+      <c r="P167" s="14"/>
     </row>
     <row r="168">
       <c r="A168" s="12"/>
@@ -5143,9 +3584,7 @@
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
-      <c r="P168" s="14" t="s">
-        <v>163</v>
-      </c>
+      <c r="P168" s="14"/>
     </row>
     <row r="169">
       <c r="A169" s="12"/>
@@ -5163,9 +3602,7 @@
       <c r="M169" s="13"/>
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
-      <c r="P169" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="P169" s="14"/>
     </row>
     <row r="170">
       <c r="A170" s="12"/>
@@ -5183,9 +3620,7 @@
       <c r="M170" s="13"/>
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
-      <c r="P170" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="P170" s="14"/>
     </row>
     <row r="171">
       <c r="A171" s="12"/>
@@ -5203,9 +3638,7 @@
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
-      <c r="P171" s="14" t="s">
-        <v>166</v>
-      </c>
+      <c r="P171" s="14"/>
     </row>
     <row r="172">
       <c r="A172" s="12"/>
@@ -5223,9 +3656,7 @@
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
-      <c r="P172" s="14" t="s">
-        <v>167</v>
-      </c>
+      <c r="P172" s="14"/>
     </row>
     <row r="173">
       <c r="A173" s="12"/>
@@ -5243,9 +3674,7 @@
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
-      <c r="P173" s="14" t="s">
-        <v>168</v>
-      </c>
+      <c r="P173" s="14"/>
     </row>
     <row r="174">
       <c r="A174" s="12"/>
@@ -5263,9 +3692,7 @@
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
-      <c r="P174" s="14" t="s">
-        <v>169</v>
-      </c>
+      <c r="P174" s="14"/>
     </row>
     <row r="175">
       <c r="A175" s="12"/>
@@ -5283,9 +3710,7 @@
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
-      <c r="P175" s="14" t="s">
-        <v>170</v>
-      </c>
+      <c r="P175" s="14"/>
     </row>
     <row r="176">
       <c r="A176" s="12"/>
@@ -5303,9 +3728,7 @@
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
-      <c r="P176" s="14" t="s">
-        <v>171</v>
-      </c>
+      <c r="P176" s="14"/>
     </row>
     <row r="177">
       <c r="A177" s="12"/>
@@ -5323,9 +3746,7 @@
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
-      <c r="P177" s="14" t="s">
-        <v>172</v>
-      </c>
+      <c r="P177" s="14"/>
     </row>
     <row r="178">
       <c r="A178" s="12"/>
@@ -5343,9 +3764,7 @@
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
-      <c r="P178" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="P178" s="14"/>
     </row>
     <row r="179">
       <c r="A179" s="12"/>
@@ -5363,9 +3782,7 @@
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
-      <c r="P179" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="P179" s="14"/>
     </row>
     <row r="180">
       <c r="A180" s="12"/>
@@ -5383,9 +3800,7 @@
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
-      <c r="P180" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="P180" s="14"/>
     </row>
     <row r="181">
       <c r="A181" s="12"/>
@@ -5403,9 +3818,7 @@
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
-      <c r="P181" s="14" t="s">
-        <v>176</v>
-      </c>
+      <c r="P181" s="14"/>
     </row>
     <row r="182">
       <c r="A182" s="12"/>
@@ -5423,9 +3836,7 @@
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
-      <c r="P182" s="14" t="s">
-        <v>177</v>
-      </c>
+      <c r="P182" s="14"/>
     </row>
     <row r="183">
       <c r="A183" s="12"/>
@@ -5443,9 +3854,7 @@
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
-      <c r="P183" s="14" t="s">
-        <v>178</v>
-      </c>
+      <c r="P183" s="14"/>
     </row>
     <row r="184">
       <c r="A184" s="12"/>
@@ -5463,9 +3872,7 @@
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
-      <c r="P184" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="P184" s="14"/>
     </row>
     <row r="185">
       <c r="A185" s="12"/>
@@ -5483,9 +3890,7 @@
       <c r="M185" s="13"/>
       <c r="N185" s="13"/>
       <c r="O185" s="13"/>
-      <c r="P185" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="P185" s="14"/>
     </row>
     <row r="186">
       <c r="A186" s="12"/>
@@ -5503,9 +3908,7 @@
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
-      <c r="P186" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="P186" s="14"/>
     </row>
     <row r="187">
       <c r="A187" s="12"/>
@@ -5523,9 +3926,7 @@
       <c r="M187" s="13"/>
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
-      <c r="P187" s="14" t="s">
-        <v>181</v>
-      </c>
+      <c r="P187" s="14"/>
     </row>
     <row r="188">
       <c r="A188" s="12"/>
@@ -5543,9 +3944,7 @@
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
-      <c r="P188" s="14" t="s">
-        <v>182</v>
-      </c>
+      <c r="P188" s="14"/>
     </row>
     <row r="189">
       <c r="A189" s="12"/>
@@ -5563,9 +3962,7 @@
       <c r="M189" s="13"/>
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
-      <c r="P189" s="14" t="s">
-        <v>183</v>
-      </c>
+      <c r="P189" s="14"/>
     </row>
     <row r="190">
       <c r="A190" s="12"/>
@@ -5583,9 +3980,7 @@
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
       <c r="O190" s="13"/>
-      <c r="P190" s="14" t="s">
-        <v>184</v>
-      </c>
+      <c r="P190" s="14"/>
     </row>
     <row r="191">
       <c r="A191" s="12"/>
@@ -5603,9 +3998,7 @@
       <c r="M191" s="13"/>
       <c r="N191" s="13"/>
       <c r="O191" s="13"/>
-      <c r="P191" s="14" t="s">
-        <v>185</v>
-      </c>
+      <c r="P191" s="14"/>
     </row>
     <row r="192">
       <c r="A192" s="12"/>
@@ -5623,9 +4016,7 @@
       <c r="M192" s="13"/>
       <c r="N192" s="13"/>
       <c r="O192" s="13"/>
-      <c r="P192" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="P192" s="14"/>
     </row>
     <row r="193">
       <c r="A193" s="12"/>
@@ -5643,9 +4034,7 @@
       <c r="M193" s="13"/>
       <c r="N193" s="13"/>
       <c r="O193" s="13"/>
-      <c r="P193" s="14" t="s">
-        <v>187</v>
-      </c>
+      <c r="P193" s="14"/>
     </row>
     <row r="194">
       <c r="A194" s="12"/>
@@ -5663,9 +4052,7 @@
       <c r="M194" s="13"/>
       <c r="N194" s="13"/>
       <c r="O194" s="13"/>
-      <c r="P194" s="14" t="s">
-        <v>188</v>
-      </c>
+      <c r="P194" s="14"/>
     </row>
     <row r="195">
       <c r="A195" s="12"/>
@@ -5683,9 +4070,7 @@
       <c r="M195" s="13"/>
       <c r="N195" s="13"/>
       <c r="O195" s="13"/>
-      <c r="P195" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="P195" s="14"/>
     </row>
     <row r="196">
       <c r="A196" s="12"/>
@@ -5703,9 +4088,7 @@
       <c r="M196" s="13"/>
       <c r="N196" s="13"/>
       <c r="O196" s="13"/>
-      <c r="P196" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="P196" s="14"/>
     </row>
     <row r="197">
       <c r="A197" s="12"/>
@@ -5723,9 +4106,7 @@
       <c r="M197" s="13"/>
       <c r="N197" s="13"/>
       <c r="O197" s="13"/>
-      <c r="P197" s="14" t="s">
-        <v>191</v>
-      </c>
+      <c r="P197" s="14"/>
     </row>
     <row r="198">
       <c r="A198" s="12"/>
@@ -5743,9 +4124,7 @@
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
       <c r="O198" s="13"/>
-      <c r="P198" s="14" t="s">
-        <v>192</v>
-      </c>
+      <c r="P198" s="14"/>
     </row>
     <row r="199">
       <c r="A199" s="12"/>
@@ -5763,9 +4142,7 @@
       <c r="M199" s="13"/>
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
-      <c r="P199" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="P199" s="14"/>
     </row>
     <row r="200">
       <c r="A200" s="12"/>
@@ -5783,9 +4160,7 @@
       <c r="M200" s="13"/>
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
-      <c r="P200" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="P200" s="14"/>
     </row>
     <row r="201">
       <c r="A201" s="12"/>
@@ -5803,9 +4178,7 @@
       <c r="M201" s="13"/>
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
-      <c r="P201" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="P201" s="14"/>
     </row>
     <row r="202">
       <c r="A202" s="12"/>
@@ -5823,9 +4196,7 @@
       <c r="M202" s="13"/>
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
-      <c r="P202" s="14" t="s">
-        <v>196</v>
-      </c>
+      <c r="P202" s="14"/>
     </row>
     <row r="203">
       <c r="A203" s="12"/>
@@ -5843,9 +4214,7 @@
       <c r="M203" s="13"/>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
-      <c r="P203" s="14" t="s">
-        <v>197</v>
-      </c>
+      <c r="P203" s="14"/>
     </row>
     <row r="204">
       <c r="A204" s="12"/>
@@ -5863,9 +4232,7 @@
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
-      <c r="P204" s="14" t="s">
-        <v>198</v>
-      </c>
+      <c r="P204" s="14"/>
     </row>
     <row r="205">
       <c r="A205" s="12"/>
@@ -5883,9 +4250,7 @@
       <c r="M205" s="13"/>
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
-      <c r="P205" s="14" t="s">
-        <v>199</v>
-      </c>
+      <c r="P205" s="14"/>
     </row>
     <row r="206">
       <c r="A206" s="12"/>
@@ -5903,9 +4268,7 @@
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
-      <c r="P206" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="P206" s="14"/>
     </row>
     <row r="207">
       <c r="A207" s="12"/>
@@ -5923,9 +4286,7 @@
       <c r="M207" s="13"/>
       <c r="N207" s="13"/>
       <c r="O207" s="13"/>
-      <c r="P207" s="14" t="s">
-        <v>201</v>
-      </c>
+      <c r="P207" s="14"/>
     </row>
     <row r="208">
       <c r="A208" s="12"/>
@@ -5943,9 +4304,7 @@
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
-      <c r="P208" s="14" t="s">
-        <v>202</v>
-      </c>
+      <c r="P208" s="14"/>
     </row>
     <row r="209">
       <c r="A209" s="12"/>
@@ -5963,9 +4322,7 @@
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
-      <c r="P209" s="14" t="s">
-        <v>203</v>
-      </c>
+      <c r="P209" s="14"/>
     </row>
     <row r="210">
       <c r="A210" s="12"/>
@@ -5983,9 +4340,7 @@
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
-      <c r="P210" s="14" t="s">
-        <v>204</v>
-      </c>
+      <c r="P210" s="14"/>
     </row>
     <row r="211">
       <c r="A211" s="12"/>
@@ -6003,9 +4358,7 @@
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
       <c r="O211" s="13"/>
-      <c r="P211" s="14" t="s">
-        <v>205</v>
-      </c>
+      <c r="P211" s="14"/>
     </row>
     <row r="212">
       <c r="A212" s="12"/>
@@ -6023,9 +4376,7 @@
       <c r="M212" s="13"/>
       <c r="N212" s="13"/>
       <c r="O212" s="13"/>
-      <c r="P212" s="14" t="s">
-        <v>206</v>
-      </c>
+      <c r="P212" s="14"/>
     </row>
     <row r="213">
       <c r="A213" s="12"/>
@@ -6043,9 +4394,7 @@
       <c r="M213" s="13"/>
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
-      <c r="P213" s="14" t="s">
-        <v>207</v>
-      </c>
+      <c r="P213" s="14"/>
     </row>
     <row r="214">
       <c r="A214" s="12"/>
@@ -6063,9 +4412,7 @@
       <c r="M214" s="13"/>
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
-      <c r="P214" s="14" t="s">
-        <v>208</v>
-      </c>
+      <c r="P214" s="14"/>
     </row>
     <row r="215">
       <c r="A215" s="12"/>
@@ -6083,9 +4430,7 @@
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
-      <c r="P215" s="14" t="s">
-        <v>209</v>
-      </c>
+      <c r="P215" s="14"/>
     </row>
     <row r="216">
       <c r="A216" s="12"/>
@@ -6103,9 +4448,7 @@
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
-      <c r="P216" s="14" t="s">
-        <v>210</v>
-      </c>
+      <c r="P216" s="14"/>
     </row>
     <row r="217">
       <c r="A217" s="12"/>
@@ -6123,9 +4466,7 @@
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
-      <c r="P217" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="P217" s="14"/>
     </row>
     <row r="218">
       <c r="A218" s="12"/>
@@ -6143,9 +4484,7 @@
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
-      <c r="P218" s="14" t="s">
-        <v>212</v>
-      </c>
+      <c r="P218" s="14"/>
     </row>
     <row r="219">
       <c r="A219" s="12"/>
@@ -6163,9 +4502,7 @@
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
-      <c r="P219" s="14" t="s">
-        <v>213</v>
-      </c>
+      <c r="P219" s="14"/>
     </row>
     <row r="220">
       <c r="A220" s="12"/>
@@ -6183,9 +4520,7 @@
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
-      <c r="P220" s="14" t="s">
-        <v>214</v>
-      </c>
+      <c r="P220" s="14"/>
     </row>
     <row r="221">
       <c r="A221" s="12"/>
@@ -6203,9 +4538,7 @@
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
-      <c r="P221" s="14" t="s">
-        <v>215</v>
-      </c>
+      <c r="P221" s="14"/>
     </row>
     <row r="222">
       <c r="A222" s="12"/>
@@ -6223,9 +4556,7 @@
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
-      <c r="P222" s="14" t="s">
-        <v>216</v>
-      </c>
+      <c r="P222" s="14"/>
     </row>
     <row r="223">
       <c r="A223" s="12"/>
@@ -6243,9 +4574,7 @@
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
-      <c r="P223" s="14" t="s">
-        <v>217</v>
-      </c>
+      <c r="P223" s="14"/>
     </row>
     <row r="224">
       <c r="A224" s="12"/>
@@ -6263,9 +4592,7 @@
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
-      <c r="P224" s="14" t="s">
-        <v>218</v>
-      </c>
+      <c r="P224" s="14"/>
     </row>
     <row r="225">
       <c r="A225" s="12"/>
@@ -6283,9 +4610,7 @@
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
-      <c r="P225" s="14" t="s">
-        <v>219</v>
-      </c>
+      <c r="P225" s="14"/>
     </row>
     <row r="226">
       <c r="A226" s="12"/>
@@ -6303,9 +4628,7 @@
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
       <c r="O226" s="13"/>
-      <c r="P226" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="P226" s="14"/>
     </row>
     <row r="227">
       <c r="A227" s="12"/>
@@ -6323,9 +4646,7 @@
       <c r="M227" s="13"/>
       <c r="N227" s="13"/>
       <c r="O227" s="13"/>
-      <c r="P227" s="14" t="s">
-        <v>221</v>
-      </c>
+      <c r="P227" s="14"/>
     </row>
     <row r="228">
       <c r="A228" s="12"/>
@@ -6343,9 +4664,7 @@
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
-      <c r="P228" s="14" t="s">
-        <v>222</v>
-      </c>
+      <c r="P228" s="14"/>
     </row>
     <row r="229">
       <c r="A229" s="12"/>
@@ -6363,9 +4682,7 @@
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
-      <c r="P229" s="14" t="s">
-        <v>223</v>
-      </c>
+      <c r="P229" s="14"/>
     </row>
     <row r="230">
       <c r="A230" s="12"/>
@@ -6383,9 +4700,7 @@
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
-      <c r="P230" s="14" t="s">
-        <v>224</v>
-      </c>
+      <c r="P230" s="14"/>
     </row>
     <row r="231">
       <c r="A231" s="12"/>
@@ -6403,9 +4718,7 @@
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
-      <c r="P231" s="14" t="s">
-        <v>225</v>
-      </c>
+      <c r="P231" s="14"/>
     </row>
     <row r="232">
       <c r="A232" s="12"/>
@@ -6423,9 +4736,7 @@
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
-      <c r="P232" s="14" t="s">
-        <v>226</v>
-      </c>
+      <c r="P232" s="14"/>
     </row>
     <row r="233">
       <c r="A233" s="12"/>
@@ -6443,9 +4754,7 @@
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
-      <c r="P233" s="14" t="s">
-        <v>227</v>
-      </c>
+      <c r="P233" s="14"/>
     </row>
     <row r="234">
       <c r="A234" s="12"/>
@@ -6463,9 +4772,7 @@
       <c r="M234" s="13"/>
       <c r="N234" s="13"/>
       <c r="O234" s="13"/>
-      <c r="P234" s="14" t="s">
-        <v>228</v>
-      </c>
+      <c r="P234" s="14"/>
     </row>
     <row r="235">
       <c r="A235" s="12"/>
@@ -6483,9 +4790,7 @@
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
-      <c r="P235" s="14" t="s">
-        <v>229</v>
-      </c>
+      <c r="P235" s="14"/>
     </row>
     <row r="236">
       <c r="A236" s="12"/>
@@ -6503,9 +4808,7 @@
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
-      <c r="P236" s="14" t="s">
-        <v>230</v>
-      </c>
+      <c r="P236" s="14"/>
     </row>
     <row r="237">
       <c r="A237" s="12"/>
@@ -6523,9 +4826,7 @@
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
-      <c r="P237" s="14" t="s">
-        <v>231</v>
-      </c>
+      <c r="P237" s="14"/>
     </row>
     <row r="238">
       <c r="A238" s="12"/>
@@ -6543,9 +4844,7 @@
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
-      <c r="P238" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="P238" s="14"/>
     </row>
     <row r="239">
       <c r="A239" s="12"/>
@@ -6563,9 +4862,7 @@
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
-      <c r="P239" s="14" t="s">
-        <v>233</v>
-      </c>
+      <c r="P239" s="14"/>
     </row>
     <row r="240">
       <c r="A240" s="12"/>
@@ -6583,9 +4880,7 @@
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
-      <c r="P240" s="14" t="s">
-        <v>234</v>
-      </c>
+      <c r="P240" s="14"/>
     </row>
     <row r="241">
       <c r="A241" s="12"/>
@@ -6603,9 +4898,7 @@
       <c r="M241" s="13"/>
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
-      <c r="P241" s="14" t="s">
-        <v>235</v>
-      </c>
+      <c r="P241" s="14"/>
     </row>
     <row r="242">
       <c r="A242" s="12"/>
@@ -6623,9 +4916,7 @@
       <c r="M242" s="13"/>
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
-      <c r="P242" s="14" t="s">
-        <v>236</v>
-      </c>
+      <c r="P242" s="14"/>
     </row>
     <row r="243">
       <c r="A243" s="12"/>
@@ -6643,9 +4934,7 @@
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
-      <c r="P243" s="14" t="s">
-        <v>237</v>
-      </c>
+      <c r="P243" s="14"/>
     </row>
     <row r="244">
       <c r="A244" s="12"/>
@@ -6663,9 +4952,7 @@
       <c r="M244" s="13"/>
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
-      <c r="P244" s="14" t="s">
-        <v>238</v>
-      </c>
+      <c r="P244" s="14"/>
     </row>
     <row r="245">
       <c r="A245" s="12"/>
@@ -6683,9 +4970,7 @@
       <c r="M245" s="13"/>
       <c r="N245" s="13"/>
       <c r="O245" s="13"/>
-      <c r="P245" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="P245" s="14"/>
     </row>
     <row r="246">
       <c r="A246" s="12"/>
@@ -6703,9 +4988,7 @@
       <c r="M246" s="13"/>
       <c r="N246" s="13"/>
       <c r="O246" s="13"/>
-      <c r="P246" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="P246" s="14"/>
     </row>
     <row r="247">
       <c r="A247" s="12"/>
@@ -6723,9 +5006,7 @@
       <c r="M247" s="13"/>
       <c r="N247" s="13"/>
       <c r="O247" s="13"/>
-      <c r="P247" s="14" t="s">
-        <v>240</v>
-      </c>
+      <c r="P247" s="14"/>
     </row>
     <row r="248">
       <c r="A248" s="12"/>
@@ -6743,9 +5024,7 @@
       <c r="M248" s="13"/>
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
-      <c r="P248" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="P248" s="14"/>
     </row>
     <row r="249">
       <c r="A249" s="12"/>
@@ -6763,9 +5042,7 @@
       <c r="M249" s="13"/>
       <c r="N249" s="13"/>
       <c r="O249" s="13"/>
-      <c r="P249" s="14" t="s">
-        <v>242</v>
-      </c>
+      <c r="P249" s="14"/>
     </row>
     <row r="250">
       <c r="A250" s="12"/>
@@ -6783,9 +5060,7 @@
       <c r="M250" s="13"/>
       <c r="N250" s="13"/>
       <c r="O250" s="13"/>
-      <c r="P250" s="14" t="s">
-        <v>243</v>
-      </c>
+      <c r="P250" s="14"/>
     </row>
     <row r="251">
       <c r="A251" s="12"/>
@@ -6803,9 +5078,7 @@
       <c r="M251" s="13"/>
       <c r="N251" s="13"/>
       <c r="O251" s="13"/>
-      <c r="P251" s="14" t="s">
-        <v>244</v>
-      </c>
+      <c r="P251" s="14"/>
     </row>
     <row r="252">
       <c r="A252" s="12"/>
@@ -6823,9 +5096,7 @@
       <c r="M252" s="13"/>
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
-      <c r="P252" s="14" t="s">
-        <v>245</v>
-      </c>
+      <c r="P252" s="14"/>
     </row>
     <row r="253">
       <c r="A253" s="12"/>
@@ -6843,9 +5114,7 @@
       <c r="M253" s="13"/>
       <c r="N253" s="13"/>
       <c r="O253" s="13"/>
-      <c r="P253" s="14" t="s">
-        <v>246</v>
-      </c>
+      <c r="P253" s="14"/>
     </row>
     <row r="254">
       <c r="A254" s="12"/>
@@ -6863,9 +5132,7 @@
       <c r="M254" s="13"/>
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
-      <c r="P254" s="14" t="s">
-        <v>247</v>
-      </c>
+      <c r="P254" s="14"/>
     </row>
     <row r="255">
       <c r="A255" s="12"/>
@@ -6883,9 +5150,7 @@
       <c r="M255" s="13"/>
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
-      <c r="P255" s="14" t="s">
-        <v>248</v>
-      </c>
+      <c r="P255" s="14"/>
     </row>
     <row r="256">
       <c r="A256" s="12"/>
@@ -6903,9 +5168,7 @@
       <c r="M256" s="13"/>
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
-      <c r="P256" s="14" t="s">
-        <v>249</v>
-      </c>
+      <c r="P256" s="14"/>
     </row>
     <row r="257">
       <c r="A257" s="12"/>
@@ -6923,9 +5186,7 @@
       <c r="M257" s="13"/>
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
-      <c r="P257" s="14" t="s">
-        <v>250</v>
-      </c>
+      <c r="P257" s="14"/>
     </row>
     <row r="258">
       <c r="A258" s="12"/>
@@ -6943,9 +5204,7 @@
       <c r="M258" s="13"/>
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
-      <c r="P258" s="14" t="s">
-        <v>251</v>
-      </c>
+      <c r="P258" s="14"/>
     </row>
     <row r="259">
       <c r="A259" s="12"/>
@@ -6963,9 +5222,7 @@
       <c r="M259" s="13"/>
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
-      <c r="P259" s="14" t="s">
-        <v>252</v>
-      </c>
+      <c r="P259" s="14"/>
     </row>
     <row r="260">
       <c r="A260" s="12"/>
@@ -6983,9 +5240,7 @@
       <c r="M260" s="13"/>
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
-      <c r="P260" s="14" t="s">
-        <v>253</v>
-      </c>
+      <c r="P260" s="14"/>
     </row>
     <row r="261">
       <c r="A261" s="12"/>
@@ -7003,9 +5258,7 @@
       <c r="M261" s="13"/>
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
-      <c r="P261" s="14" t="s">
-        <v>254</v>
-      </c>
+      <c r="P261" s="14"/>
     </row>
     <row r="262">
       <c r="A262" s="12"/>
@@ -7023,9 +5276,7 @@
       <c r="M262" s="13"/>
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
-      <c r="P262" s="14" t="s">
-        <v>255</v>
-      </c>
+      <c r="P262" s="14"/>
     </row>
     <row r="263">
       <c r="A263" s="12"/>
@@ -7043,9 +5294,7 @@
       <c r="M263" s="13"/>
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
-      <c r="P263" s="14" t="s">
-        <v>256</v>
-      </c>
+      <c r="P263" s="14"/>
     </row>
     <row r="264">
       <c r="A264" s="12"/>
@@ -7063,9 +5312,7 @@
       <c r="M264" s="13"/>
       <c r="N264" s="13"/>
       <c r="O264" s="13"/>
-      <c r="P264" s="14" t="s">
-        <v>257</v>
-      </c>
+      <c r="P264" s="14"/>
     </row>
     <row r="265">
       <c r="A265" s="12"/>
@@ -7083,9 +5330,7 @@
       <c r="M265" s="13"/>
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
-      <c r="P265" s="14" t="s">
-        <v>258</v>
-      </c>
+      <c r="P265" s="14"/>
     </row>
     <row r="266">
       <c r="A266" s="12"/>
@@ -7103,9 +5348,7 @@
       <c r="M266" s="13"/>
       <c r="N266" s="13"/>
       <c r="O266" s="13"/>
-      <c r="P266" s="14" t="s">
-        <v>259</v>
-      </c>
+      <c r="P266" s="14"/>
     </row>
     <row r="267">
       <c r="A267" s="12"/>
@@ -7123,9 +5366,7 @@
       <c r="M267" s="13"/>
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
-      <c r="P267" s="14" t="s">
-        <v>260</v>
-      </c>
+      <c r="P267" s="14"/>
     </row>
     <row r="268">
       <c r="A268" s="12"/>
@@ -7143,9 +5384,7 @@
       <c r="M268" s="13"/>
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
-      <c r="P268" s="14" t="s">
-        <v>261</v>
-      </c>
+      <c r="P268" s="14"/>
     </row>
     <row r="269">
       <c r="A269" s="12"/>
@@ -7163,9 +5402,7 @@
       <c r="M269" s="13"/>
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
-      <c r="P269" s="14" t="s">
-        <v>262</v>
-      </c>
+      <c r="P269" s="14"/>
     </row>
     <row r="270">
       <c r="A270" s="12"/>
@@ -7183,9 +5420,7 @@
       <c r="M270" s="13"/>
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
-      <c r="P270" s="14" t="s">
-        <v>263</v>
-      </c>
+      <c r="P270" s="14"/>
     </row>
     <row r="271">
       <c r="A271" s="12"/>
@@ -7203,9 +5438,7 @@
       <c r="M271" s="13"/>
       <c r="N271" s="13"/>
       <c r="O271" s="13"/>
-      <c r="P271" s="14" t="s">
-        <v>264</v>
-      </c>
+      <c r="P271" s="14"/>
     </row>
     <row r="272">
       <c r="A272" s="12"/>
@@ -7223,9 +5456,7 @@
       <c r="M272" s="13"/>
       <c r="N272" s="13"/>
       <c r="O272" s="13"/>
-      <c r="P272" s="14" t="s">
-        <v>265</v>
-      </c>
+      <c r="P272" s="14"/>
     </row>
     <row r="273">
       <c r="A273" s="12"/>
@@ -7243,9 +5474,7 @@
       <c r="M273" s="13"/>
       <c r="N273" s="13"/>
       <c r="O273" s="13"/>
-      <c r="P273" s="14" t="s">
-        <v>266</v>
-      </c>
+      <c r="P273" s="14"/>
     </row>
     <row r="274">
       <c r="A274" s="12"/>
@@ -7263,9 +5492,7 @@
       <c r="M274" s="13"/>
       <c r="N274" s="13"/>
       <c r="O274" s="13"/>
-      <c r="P274" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="P274" s="14"/>
     </row>
     <row r="275">
       <c r="A275" s="12"/>
@@ -7283,9 +5510,7 @@
       <c r="M275" s="13"/>
       <c r="N275" s="13"/>
       <c r="O275" s="13"/>
-      <c r="P275" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="P275" s="14"/>
     </row>
     <row r="276">
       <c r="A276" s="12"/>
@@ -7303,9 +5528,7 @@
       <c r="M276" s="13"/>
       <c r="N276" s="13"/>
       <c r="O276" s="13"/>
-      <c r="P276" s="14" t="s">
-        <v>269</v>
-      </c>
+      <c r="P276" s="14"/>
     </row>
     <row r="277">
       <c r="A277" s="12"/>
@@ -7323,9 +5546,7 @@
       <c r="M277" s="13"/>
       <c r="N277" s="13"/>
       <c r="O277" s="13"/>
-      <c r="P277" s="14" t="s">
-        <v>270</v>
-      </c>
+      <c r="P277" s="14"/>
     </row>
     <row r="278">
       <c r="A278" s="12"/>
@@ -7343,9 +5564,7 @@
       <c r="M278" s="13"/>
       <c r="N278" s="13"/>
       <c r="O278" s="13"/>
-      <c r="P278" s="14" t="s">
-        <v>271</v>
-      </c>
+      <c r="P278" s="14"/>
     </row>
     <row r="279">
       <c r="A279" s="12"/>
@@ -7363,9 +5582,7 @@
       <c r="M279" s="13"/>
       <c r="N279" s="13"/>
       <c r="O279" s="13"/>
-      <c r="P279" s="14" t="s">
-        <v>272</v>
-      </c>
+      <c r="P279" s="14"/>
     </row>
     <row r="280">
       <c r="A280" s="12"/>
@@ -7383,9 +5600,7 @@
       <c r="M280" s="13"/>
       <c r="N280" s="13"/>
       <c r="O280" s="13"/>
-      <c r="P280" s="14" t="s">
-        <v>273</v>
-      </c>
+      <c r="P280" s="14"/>
     </row>
     <row r="281">
       <c r="A281" s="12"/>
@@ -7403,9 +5618,7 @@
       <c r="M281" s="13"/>
       <c r="N281" s="13"/>
       <c r="O281" s="13"/>
-      <c r="P281" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="P281" s="14"/>
     </row>
     <row r="282">
       <c r="A282" s="12"/>
@@ -7423,9 +5636,7 @@
       <c r="M282" s="13"/>
       <c r="N282" s="13"/>
       <c r="O282" s="13"/>
-      <c r="P282" s="14" t="s">
-        <v>275</v>
-      </c>
+      <c r="P282" s="14"/>
     </row>
     <row r="283">
       <c r="A283" s="12"/>
@@ -7443,9 +5654,7 @@
       <c r="M283" s="13"/>
       <c r="N283" s="13"/>
       <c r="O283" s="13"/>
-      <c r="P283" s="14" t="s">
-        <v>276</v>
-      </c>
+      <c r="P283" s="14"/>
     </row>
     <row r="284">
       <c r="A284" s="12"/>
@@ -7463,9 +5672,7 @@
       <c r="M284" s="13"/>
       <c r="N284" s="13"/>
       <c r="O284" s="13"/>
-      <c r="P284" s="14" t="s">
-        <v>277</v>
-      </c>
+      <c r="P284" s="14"/>
     </row>
     <row r="285">
       <c r="A285" s="12"/>
@@ -7483,9 +5690,7 @@
       <c r="M285" s="13"/>
       <c r="N285" s="13"/>
       <c r="O285" s="13"/>
-      <c r="P285" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="P285" s="14"/>
     </row>
     <row r="286">
       <c r="A286" s="12"/>
@@ -7503,9 +5708,7 @@
       <c r="M286" s="13"/>
       <c r="N286" s="13"/>
       <c r="O286" s="13"/>
-      <c r="P286" s="14" t="s">
-        <v>279</v>
-      </c>
+      <c r="P286" s="14"/>
     </row>
     <row r="287">
       <c r="A287" s="12"/>
@@ -7523,9 +5726,7 @@
       <c r="M287" s="13"/>
       <c r="N287" s="13"/>
       <c r="O287" s="13"/>
-      <c r="P287" s="14" t="s">
-        <v>280</v>
-      </c>
+      <c r="P287" s="14"/>
     </row>
     <row r="288">
       <c r="A288" s="12"/>
@@ -7543,9 +5744,7 @@
       <c r="M288" s="13"/>
       <c r="N288" s="13"/>
       <c r="O288" s="13"/>
-      <c r="P288" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="P288" s="14"/>
     </row>
     <row r="289">
       <c r="A289" s="12"/>
@@ -7563,9 +5762,7 @@
       <c r="M289" s="13"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
-      <c r="P289" s="14" t="s">
-        <v>282</v>
-      </c>
+      <c r="P289" s="14"/>
     </row>
     <row r="290">
       <c r="A290" s="12"/>
@@ -7583,9 +5780,7 @@
       <c r="M290" s="13"/>
       <c r="N290" s="13"/>
       <c r="O290" s="13"/>
-      <c r="P290" s="14" t="s">
-        <v>283</v>
-      </c>
+      <c r="P290" s="14"/>
     </row>
     <row r="291">
       <c r="A291" s="12"/>
@@ -7603,9 +5798,7 @@
       <c r="M291" s="13"/>
       <c r="N291" s="13"/>
       <c r="O291" s="13"/>
-      <c r="P291" s="14" t="s">
-        <v>284</v>
-      </c>
+      <c r="P291" s="14"/>
     </row>
     <row r="292">
       <c r="A292" s="12"/>
@@ -7623,9 +5816,7 @@
       <c r="M292" s="13"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
-      <c r="P292" s="14" t="s">
-        <v>285</v>
-      </c>
+      <c r="P292" s="14"/>
     </row>
     <row r="293">
       <c r="A293" s="12"/>
@@ -7643,9 +5834,7 @@
       <c r="M293" s="13"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
-      <c r="P293" s="14" t="s">
-        <v>286</v>
-      </c>
+      <c r="P293" s="14"/>
     </row>
     <row r="294">
       <c r="A294" s="12"/>
@@ -7663,9 +5852,7 @@
       <c r="M294" s="13"/>
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
-      <c r="P294" s="14" t="s">
-        <v>287</v>
-      </c>
+      <c r="P294" s="14"/>
     </row>
     <row r="295">
       <c r="A295" s="12"/>
@@ -7683,9 +5870,7 @@
       <c r="M295" s="13"/>
       <c r="N295" s="13"/>
       <c r="O295" s="13"/>
-      <c r="P295" s="14" t="s">
-        <v>288</v>
-      </c>
+      <c r="P295" s="14"/>
     </row>
     <row r="296">
       <c r="A296" s="12"/>
@@ -7703,9 +5888,7 @@
       <c r="M296" s="13"/>
       <c r="N296" s="13"/>
       <c r="O296" s="13"/>
-      <c r="P296" s="14" t="s">
-        <v>289</v>
-      </c>
+      <c r="P296" s="14"/>
     </row>
     <row r="297">
       <c r="A297" s="12"/>
@@ -7723,9 +5906,7 @@
       <c r="M297" s="13"/>
       <c r="N297" s="13"/>
       <c r="O297" s="13"/>
-      <c r="P297" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="P297" s="14"/>
     </row>
     <row r="298">
       <c r="A298" s="12"/>
@@ -7743,9 +5924,7 @@
       <c r="M298" s="13"/>
       <c r="N298" s="13"/>
       <c r="O298" s="13"/>
-      <c r="P298" s="14" t="s">
-        <v>291</v>
-      </c>
+      <c r="P298" s="14"/>
     </row>
     <row r="299">
       <c r="A299" s="12"/>
@@ -7763,9 +5942,7 @@
       <c r="M299" s="13"/>
       <c r="N299" s="13"/>
       <c r="O299" s="13"/>
-      <c r="P299" s="14" t="s">
-        <v>292</v>
-      </c>
+      <c r="P299" s="14"/>
     </row>
     <row r="300">
       <c r="A300" s="12"/>
@@ -7783,9 +5960,7 @@
       <c r="M300" s="13"/>
       <c r="N300" s="13"/>
       <c r="O300" s="13"/>
-      <c r="P300" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="P300" s="14"/>
     </row>
     <row r="301">
       <c r="A301" s="12"/>
@@ -7803,9 +5978,7 @@
       <c r="M301" s="13"/>
       <c r="N301" s="13"/>
       <c r="O301" s="13"/>
-      <c r="P301" s="14" t="s">
-        <v>294</v>
-      </c>
+      <c r="P301" s="14"/>
     </row>
     <row r="302">
       <c r="A302" s="12"/>
@@ -7823,9 +5996,7 @@
       <c r="M302" s="13"/>
       <c r="N302" s="13"/>
       <c r="O302" s="13"/>
-      <c r="P302" s="14" t="s">
-        <v>295</v>
-      </c>
+      <c r="P302" s="14"/>
     </row>
     <row r="303">
       <c r="A303" s="12"/>
@@ -7843,9 +6014,7 @@
       <c r="M303" s="13"/>
       <c r="N303" s="13"/>
       <c r="O303" s="13"/>
-      <c r="P303" s="14" t="s">
-        <v>296</v>
-      </c>
+      <c r="P303" s="14"/>
     </row>
     <row r="304">
       <c r="A304" s="12"/>
@@ -7863,9 +6032,7 @@
       <c r="M304" s="13"/>
       <c r="N304" s="13"/>
       <c r="O304" s="13"/>
-      <c r="P304" s="14" t="s">
-        <v>297</v>
-      </c>
+      <c r="P304" s="14"/>
     </row>
     <row r="305">
       <c r="A305" s="12"/>
@@ -7883,9 +6050,7 @@
       <c r="M305" s="13"/>
       <c r="N305" s="13"/>
       <c r="O305" s="13"/>
-      <c r="P305" s="14" t="s">
-        <v>298</v>
-      </c>
+      <c r="P305" s="14"/>
     </row>
     <row r="306">
       <c r="A306" s="12"/>
@@ -7903,9 +6068,7 @@
       <c r="M306" s="13"/>
       <c r="N306" s="13"/>
       <c r="O306" s="13"/>
-      <c r="P306" s="14" t="s">
-        <v>299</v>
-      </c>
+      <c r="P306" s="14"/>
     </row>
     <row r="307">
       <c r="A307" s="12"/>
@@ -7923,9 +6086,7 @@
       <c r="M307" s="13"/>
       <c r="N307" s="13"/>
       <c r="O307" s="13"/>
-      <c r="P307" s="14" t="s">
-        <v>300</v>
-      </c>
+      <c r="P307" s="14"/>
     </row>
     <row r="308">
       <c r="A308" s="12"/>
@@ -7943,9 +6104,7 @@
       <c r="M308" s="13"/>
       <c r="N308" s="13"/>
       <c r="O308" s="13"/>
-      <c r="P308" s="14" t="s">
-        <v>301</v>
-      </c>
+      <c r="P308" s="14"/>
     </row>
     <row r="309">
       <c r="A309" s="12"/>
@@ -7963,9 +6122,7 @@
       <c r="M309" s="13"/>
       <c r="N309" s="13"/>
       <c r="O309" s="13"/>
-      <c r="P309" s="14" t="s">
-        <v>302</v>
-      </c>
+      <c r="P309" s="14"/>
     </row>
     <row r="310">
       <c r="A310" s="12"/>
@@ -7983,9 +6140,7 @@
       <c r="M310" s="13"/>
       <c r="N310" s="13"/>
       <c r="O310" s="13"/>
-      <c r="P310" s="14" t="s">
-        <v>303</v>
-      </c>
+      <c r="P310" s="14"/>
     </row>
     <row r="311">
       <c r="A311" s="12"/>
@@ -8003,9 +6158,7 @@
       <c r="M311" s="13"/>
       <c r="N311" s="13"/>
       <c r="O311" s="13"/>
-      <c r="P311" s="14" t="s">
-        <v>304</v>
-      </c>
+      <c r="P311" s="14"/>
     </row>
     <row r="312">
       <c r="A312" s="12"/>
@@ -8023,9 +6176,7 @@
       <c r="M312" s="13"/>
       <c r="N312" s="13"/>
       <c r="O312" s="13"/>
-      <c r="P312" s="14" t="s">
-        <v>305</v>
-      </c>
+      <c r="P312" s="14"/>
     </row>
     <row r="313">
       <c r="A313" s="12"/>
@@ -8043,9 +6194,7 @@
       <c r="M313" s="13"/>
       <c r="N313" s="13"/>
       <c r="O313" s="13"/>
-      <c r="P313" s="14" t="s">
-        <v>306</v>
-      </c>
+      <c r="P313" s="14"/>
     </row>
     <row r="314">
       <c r="A314" s="12"/>
@@ -8063,9 +6212,7 @@
       <c r="M314" s="13"/>
       <c r="N314" s="13"/>
       <c r="O314" s="13"/>
-      <c r="P314" s="14" t="s">
-        <v>307</v>
-      </c>
+      <c r="P314" s="14"/>
     </row>
     <row r="315">
       <c r="A315" s="12"/>
@@ -8083,9 +6230,7 @@
       <c r="M315" s="13"/>
       <c r="N315" s="13"/>
       <c r="O315" s="13"/>
-      <c r="P315" s="14" t="s">
-        <v>308</v>
-      </c>
+      <c r="P315" s="14"/>
     </row>
     <row r="316">
       <c r="A316" s="12"/>
@@ -8103,9 +6248,7 @@
       <c r="M316" s="13"/>
       <c r="N316" s="13"/>
       <c r="O316" s="13"/>
-      <c r="P316" s="14" t="s">
-        <v>309</v>
-      </c>
+      <c r="P316" s="14"/>
     </row>
     <row r="317">
       <c r="A317" s="12"/>
@@ -8123,9 +6266,7 @@
       <c r="M317" s="13"/>
       <c r="N317" s="13"/>
       <c r="O317" s="13"/>
-      <c r="P317" s="14" t="s">
-        <v>310</v>
-      </c>
+      <c r="P317" s="14"/>
     </row>
     <row r="318">
       <c r="A318" s="12"/>
@@ -8143,9 +6284,7 @@
       <c r="M318" s="13"/>
       <c r="N318" s="13"/>
       <c r="O318" s="13"/>
-      <c r="P318" s="14" t="s">
-        <v>311</v>
-      </c>
+      <c r="P318" s="14"/>
     </row>
     <row r="319">
       <c r="A319" s="12"/>
@@ -8163,9 +6302,7 @@
       <c r="M319" s="13"/>
       <c r="N319" s="13"/>
       <c r="O319" s="13"/>
-      <c r="P319" s="14" t="s">
-        <v>312</v>
-      </c>
+      <c r="P319" s="14"/>
     </row>
     <row r="320">
       <c r="A320" s="12"/>
@@ -8183,9 +6320,7 @@
       <c r="M320" s="13"/>
       <c r="N320" s="13"/>
       <c r="O320" s="13"/>
-      <c r="P320" s="14" t="s">
-        <v>313</v>
-      </c>
+      <c r="P320" s="14"/>
     </row>
     <row r="321">
       <c r="A321" s="12"/>
@@ -8203,9 +6338,7 @@
       <c r="M321" s="13"/>
       <c r="N321" s="13"/>
       <c r="O321" s="13"/>
-      <c r="P321" s="14" t="s">
-        <v>314</v>
-      </c>
+      <c r="P321" s="14"/>
     </row>
     <row r="322">
       <c r="A322" s="12"/>
@@ -8223,9 +6356,7 @@
       <c r="M322" s="13"/>
       <c r="N322" s="13"/>
       <c r="O322" s="13"/>
-      <c r="P322" s="14" t="s">
-        <v>315</v>
-      </c>
+      <c r="P322" s="14"/>
     </row>
     <row r="323">
       <c r="A323" s="12"/>
@@ -8243,9 +6374,7 @@
       <c r="M323" s="13"/>
       <c r="N323" s="13"/>
       <c r="O323" s="13"/>
-      <c r="P323" s="14" t="s">
-        <v>316</v>
-      </c>
+      <c r="P323" s="14"/>
     </row>
     <row r="324">
       <c r="A324" s="12"/>
@@ -8263,9 +6392,7 @@
       <c r="M324" s="13"/>
       <c r="N324" s="13"/>
       <c r="O324" s="13"/>
-      <c r="P324" s="14" t="s">
-        <v>317</v>
-      </c>
+      <c r="P324" s="14"/>
     </row>
     <row r="325">
       <c r="A325" s="12"/>
@@ -8283,9 +6410,7 @@
       <c r="M325" s="13"/>
       <c r="N325" s="13"/>
       <c r="O325" s="13"/>
-      <c r="P325" s="14" t="s">
-        <v>318</v>
-      </c>
+      <c r="P325" s="14"/>
     </row>
     <row r="326">
       <c r="A326" s="12"/>
@@ -8303,9 +6428,7 @@
       <c r="M326" s="13"/>
       <c r="N326" s="13"/>
       <c r="O326" s="13"/>
-      <c r="P326" s="14" t="s">
-        <v>319</v>
-      </c>
+      <c r="P326" s="14"/>
     </row>
     <row r="327">
       <c r="A327" s="12"/>
@@ -8323,9 +6446,7 @@
       <c r="M327" s="13"/>
       <c r="N327" s="13"/>
       <c r="O327" s="13"/>
-      <c r="P327" s="14" t="s">
-        <v>320</v>
-      </c>
+      <c r="P327" s="14"/>
     </row>
     <row r="328">
       <c r="A328" s="12"/>
@@ -8343,9 +6464,7 @@
       <c r="M328" s="13"/>
       <c r="N328" s="13"/>
       <c r="O328" s="13"/>
-      <c r="P328" s="14" t="s">
-        <v>321</v>
-      </c>
+      <c r="P328" s="14"/>
     </row>
     <row r="329">
       <c r="A329" s="12"/>
@@ -8363,9 +6482,7 @@
       <c r="M329" s="13"/>
       <c r="N329" s="13"/>
       <c r="O329" s="13"/>
-      <c r="P329" s="14" t="s">
-        <v>322</v>
-      </c>
+      <c r="P329" s="14"/>
     </row>
     <row r="330">
       <c r="A330" s="12"/>
@@ -8383,9 +6500,7 @@
       <c r="M330" s="13"/>
       <c r="N330" s="13"/>
       <c r="O330" s="13"/>
-      <c r="P330" s="14" t="s">
-        <v>322</v>
-      </c>
+      <c r="P330" s="14"/>
     </row>
     <row r="331">
       <c r="A331" s="12"/>
@@ -8403,9 +6518,7 @@
       <c r="M331" s="13"/>
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
-      <c r="P331" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="P331" s="14"/>
     </row>
     <row r="332">
       <c r="A332" s="12"/>
@@ -8423,9 +6536,7 @@
       <c r="M332" s="13"/>
       <c r="N332" s="13"/>
       <c r="O332" s="13"/>
-      <c r="P332" s="14" t="s">
-        <v>324</v>
-      </c>
+      <c r="P332" s="14"/>
     </row>
     <row r="333">
       <c r="A333" s="12"/>
@@ -8443,9 +6554,7 @@
       <c r="M333" s="13"/>
       <c r="N333" s="13"/>
       <c r="O333" s="13"/>
-      <c r="P333" s="14" t="s">
-        <v>325</v>
-      </c>
+      <c r="P333" s="14"/>
     </row>
     <row r="334">
       <c r="A334" s="12"/>
@@ -8463,9 +6572,7 @@
       <c r="M334" s="13"/>
       <c r="N334" s="13"/>
       <c r="O334" s="13"/>
-      <c r="P334" s="14" t="s">
-        <v>326</v>
-      </c>
+      <c r="P334" s="14"/>
     </row>
     <row r="335">
       <c r="A335" s="12"/>
@@ -8483,9 +6590,7 @@
       <c r="M335" s="13"/>
       <c r="N335" s="13"/>
       <c r="O335" s="13"/>
-      <c r="P335" s="14" t="s">
-        <v>327</v>
-      </c>
+      <c r="P335" s="14"/>
     </row>
     <row r="336">
       <c r="A336" s="12"/>
@@ -8503,9 +6608,7 @@
       <c r="M336" s="13"/>
       <c r="N336" s="13"/>
       <c r="O336" s="13"/>
-      <c r="P336" s="14" t="s">
-        <v>328</v>
-      </c>
+      <c r="P336" s="14"/>
     </row>
     <row r="337">
       <c r="A337" s="12"/>
@@ -8523,9 +6626,7 @@
       <c r="M337" s="13"/>
       <c r="N337" s="13"/>
       <c r="O337" s="13"/>
-      <c r="P337" s="14" t="s">
-        <v>329</v>
-      </c>
+      <c r="P337" s="14"/>
     </row>
     <row r="338">
       <c r="A338" s="12"/>
@@ -8543,9 +6644,7 @@
       <c r="M338" s="13"/>
       <c r="N338" s="13"/>
       <c r="O338" s="13"/>
-      <c r="P338" s="14" t="s">
-        <v>330</v>
-      </c>
+      <c r="P338" s="14"/>
     </row>
     <row r="339">
       <c r="A339" s="12"/>
@@ -8563,9 +6662,7 @@
       <c r="M339" s="13"/>
       <c r="N339" s="13"/>
       <c r="O339" s="13"/>
-      <c r="P339" s="14" t="s">
-        <v>331</v>
-      </c>
+      <c r="P339" s="14"/>
     </row>
     <row r="340">
       <c r="A340" s="12"/>
@@ -8583,9 +6680,7 @@
       <c r="M340" s="13"/>
       <c r="N340" s="13"/>
       <c r="O340" s="13"/>
-      <c r="P340" s="14" t="s">
-        <v>332</v>
-      </c>
+      <c r="P340" s="14"/>
     </row>
     <row r="341">
       <c r="A341" s="12"/>
@@ -8603,9 +6698,7 @@
       <c r="M341" s="13"/>
       <c r="N341" s="13"/>
       <c r="O341" s="13"/>
-      <c r="P341" s="14" t="s">
-        <v>333</v>
-      </c>
+      <c r="P341" s="14"/>
     </row>
     <row r="342">
       <c r="A342" s="12"/>
@@ -8623,9 +6716,7 @@
       <c r="M342" s="13"/>
       <c r="N342" s="13"/>
       <c r="O342" s="13"/>
-      <c r="P342" s="14" t="s">
-        <v>334</v>
-      </c>
+      <c r="P342" s="14"/>
     </row>
     <row r="343">
       <c r="A343" s="12"/>
@@ -8643,9 +6734,7 @@
       <c r="M343" s="13"/>
       <c r="N343" s="13"/>
       <c r="O343" s="13"/>
-      <c r="P343" s="14" t="s">
-        <v>335</v>
-      </c>
+      <c r="P343" s="14"/>
     </row>
     <row r="344">
       <c r="A344" s="12"/>
@@ -8663,9 +6752,7 @@
       <c r="M344" s="13"/>
       <c r="N344" s="13"/>
       <c r="O344" s="13"/>
-      <c r="P344" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="P344" s="14"/>
     </row>
     <row r="345">
       <c r="A345" s="12"/>
@@ -8683,9 +6770,7 @@
       <c r="M345" s="13"/>
       <c r="N345" s="13"/>
       <c r="O345" s="13"/>
-      <c r="P345" s="14" t="s">
-        <v>337</v>
-      </c>
+      <c r="P345" s="14"/>
     </row>
     <row r="346">
       <c r="A346" s="12"/>
@@ -8703,9 +6788,7 @@
       <c r="M346" s="13"/>
       <c r="N346" s="13"/>
       <c r="O346" s="13"/>
-      <c r="P346" s="14" t="s">
-        <v>338</v>
-      </c>
+      <c r="P346" s="14"/>
     </row>
     <row r="347">
       <c r="A347" s="12"/>
@@ -8723,9 +6806,7 @@
       <c r="M347" s="13"/>
       <c r="N347" s="13"/>
       <c r="O347" s="13"/>
-      <c r="P347" s="14" t="s">
-        <v>339</v>
-      </c>
+      <c r="P347" s="14"/>
     </row>
     <row r="348">
       <c r="A348" s="12"/>
@@ -8743,9 +6824,7 @@
       <c r="M348" s="13"/>
       <c r="N348" s="13"/>
       <c r="O348" s="13"/>
-      <c r="P348" s="14" t="s">
-        <v>340</v>
-      </c>
+      <c r="P348" s="14"/>
     </row>
     <row r="349">
       <c r="A349" s="12"/>
@@ -8763,9 +6842,7 @@
       <c r="M349" s="13"/>
       <c r="N349" s="13"/>
       <c r="O349" s="13"/>
-      <c r="P349" s="14" t="s">
-        <v>341</v>
-      </c>
+      <c r="P349" s="14"/>
     </row>
     <row r="350">
       <c r="A350" s="12"/>
@@ -8783,9 +6860,7 @@
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
       <c r="O350" s="13"/>
-      <c r="P350" s="14" t="s">
-        <v>342</v>
-      </c>
+      <c r="P350" s="14"/>
     </row>
     <row r="351">
       <c r="A351" s="12"/>
@@ -8803,9 +6878,7 @@
       <c r="M351" s="13"/>
       <c r="N351" s="13"/>
       <c r="O351" s="13"/>
-      <c r="P351" s="14" t="s">
-        <v>343</v>
-      </c>
+      <c r="P351" s="14"/>
     </row>
     <row r="352">
       <c r="A352" s="12"/>
@@ -8823,9 +6896,7 @@
       <c r="M352" s="13"/>
       <c r="N352" s="13"/>
       <c r="O352" s="13"/>
-      <c r="P352" s="14" t="s">
-        <v>344</v>
-      </c>
+      <c r="P352" s="14"/>
     </row>
     <row r="353">
       <c r="A353" s="12"/>
@@ -8843,9 +6914,7 @@
       <c r="M353" s="13"/>
       <c r="N353" s="13"/>
       <c r="O353" s="13"/>
-      <c r="P353" s="14" t="s">
-        <v>344</v>
-      </c>
+      <c r="P353" s="14"/>
     </row>
     <row r="354">
       <c r="A354" s="12"/>
@@ -8863,9 +6932,7 @@
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
       <c r="O354" s="13"/>
-      <c r="P354" s="14" t="s">
-        <v>345</v>
-      </c>
+      <c r="P354" s="14"/>
     </row>
     <row r="355">
       <c r="A355" s="12"/>
@@ -8883,9 +6950,7 @@
       <c r="M355" s="13"/>
       <c r="N355" s="13"/>
       <c r="O355" s="13"/>
-      <c r="P355" s="14" t="s">
-        <v>346</v>
-      </c>
+      <c r="P355" s="14"/>
     </row>
     <row r="356">
       <c r="A356" s="12"/>
@@ -8903,9 +6968,7 @@
       <c r="M356" s="13"/>
       <c r="N356" s="13"/>
       <c r="O356" s="13"/>
-      <c r="P356" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="P356" s="14"/>
     </row>
     <row r="357">
       <c r="A357" s="12"/>
@@ -8923,9 +6986,7 @@
       <c r="M357" s="13"/>
       <c r="N357" s="13"/>
       <c r="O357" s="13"/>
-      <c r="P357" s="14" t="s">
-        <v>348</v>
-      </c>
+      <c r="P357" s="14"/>
     </row>
     <row r="358">
       <c r="A358" s="12"/>
@@ -8943,9 +7004,7 @@
       <c r="M358" s="13"/>
       <c r="N358" s="13"/>
       <c r="O358" s="13"/>
-      <c r="P358" s="14" t="s">
-        <v>349</v>
-      </c>
+      <c r="P358" s="14"/>
     </row>
     <row r="359">
       <c r="A359" s="12"/>
@@ -8963,9 +7022,7 @@
       <c r="M359" s="13"/>
       <c r="N359" s="13"/>
       <c r="O359" s="13"/>
-      <c r="P359" s="14" t="s">
-        <v>350</v>
-      </c>
+      <c r="P359" s="14"/>
     </row>
     <row r="360">
       <c r="A360" s="12"/>
@@ -8983,9 +7040,7 @@
       <c r="M360" s="13"/>
       <c r="N360" s="13"/>
       <c r="O360" s="13"/>
-      <c r="P360" s="14" t="s">
-        <v>351</v>
-      </c>
+      <c r="P360" s="14"/>
     </row>
     <row r="361">
       <c r="A361" s="12"/>
@@ -9003,9 +7058,7 @@
       <c r="M361" s="13"/>
       <c r="N361" s="13"/>
       <c r="O361" s="13"/>
-      <c r="P361" s="14" t="s">
-        <v>352</v>
-      </c>
+      <c r="P361" s="14"/>
     </row>
     <row r="362">
       <c r="A362" s="12"/>
@@ -9023,9 +7076,7 @@
       <c r="M362" s="13"/>
       <c r="N362" s="13"/>
       <c r="O362" s="13"/>
-      <c r="P362" s="14" t="s">
-        <v>353</v>
-      </c>
+      <c r="P362" s="14"/>
     </row>
     <row r="363">
       <c r="A363" s="12"/>
@@ -9043,9 +7094,7 @@
       <c r="M363" s="13"/>
       <c r="N363" s="13"/>
       <c r="O363" s="13"/>
-      <c r="P363" s="14" t="s">
-        <v>354</v>
-      </c>
+      <c r="P363" s="14"/>
     </row>
     <row r="364">
       <c r="A364" s="12"/>
@@ -9063,9 +7112,7 @@
       <c r="M364" s="13"/>
       <c r="N364" s="13"/>
       <c r="O364" s="13"/>
-      <c r="P364" s="14" t="s">
-        <v>355</v>
-      </c>
+      <c r="P364" s="14"/>
     </row>
     <row r="365">
       <c r="A365" s="12"/>
@@ -9083,9 +7130,7 @@
       <c r="M365" s="13"/>
       <c r="N365" s="13"/>
       <c r="O365" s="13"/>
-      <c r="P365" s="14" t="s">
-        <v>356</v>
-      </c>
+      <c r="P365" s="14"/>
     </row>
     <row r="366">
       <c r="A366" s="12"/>
@@ -9103,9 +7148,7 @@
       <c r="M366" s="13"/>
       <c r="N366" s="13"/>
       <c r="O366" s="13"/>
-      <c r="P366" s="14" t="s">
-        <v>357</v>
-      </c>
+      <c r="P366" s="14"/>
     </row>
     <row r="367">
       <c r="A367" s="12"/>
@@ -9123,9 +7166,7 @@
       <c r="M367" s="13"/>
       <c r="N367" s="13"/>
       <c r="O367" s="13"/>
-      <c r="P367" s="14" t="s">
-        <v>358</v>
-      </c>
+      <c r="P367" s="14"/>
     </row>
     <row r="368">
       <c r="A368" s="12"/>
@@ -9143,9 +7184,7 @@
       <c r="M368" s="13"/>
       <c r="N368" s="13"/>
       <c r="O368" s="13"/>
-      <c r="P368" s="14" t="s">
-        <v>359</v>
-      </c>
+      <c r="P368" s="14"/>
     </row>
     <row r="369">
       <c r="A369" s="12"/>
@@ -9163,9 +7202,7 @@
       <c r="M369" s="13"/>
       <c r="N369" s="13"/>
       <c r="O369" s="13"/>
-      <c r="P369" s="14" t="s">
-        <v>360</v>
-      </c>
+      <c r="P369" s="14"/>
     </row>
     <row r="370">
       <c r="A370" s="12"/>
@@ -9183,9 +7220,7 @@
       <c r="M370" s="13"/>
       <c r="N370" s="13"/>
       <c r="O370" s="13"/>
-      <c r="P370" s="14" t="s">
-        <v>361</v>
-      </c>
+      <c r="P370" s="14"/>
     </row>
     <row r="371">
       <c r="A371" s="12"/>
@@ -9203,9 +7238,7 @@
       <c r="M371" s="13"/>
       <c r="N371" s="13"/>
       <c r="O371" s="13"/>
-      <c r="P371" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="P371" s="14"/>
     </row>
     <row r="372">
       <c r="A372" s="12"/>
@@ -9223,9 +7256,7 @@
       <c r="M372" s="13"/>
       <c r="N372" s="13"/>
       <c r="O372" s="13"/>
-      <c r="P372" s="14" t="s">
-        <v>363</v>
-      </c>
+      <c r="P372" s="14"/>
     </row>
     <row r="373">
       <c r="A373" s="12"/>
@@ -9243,9 +7274,7 @@
       <c r="M373" s="13"/>
       <c r="N373" s="13"/>
       <c r="O373" s="13"/>
-      <c r="P373" s="14" t="s">
-        <v>364</v>
-      </c>
+      <c r="P373" s="14"/>
     </row>
     <row r="374">
       <c r="A374" s="12"/>
@@ -9263,9 +7292,7 @@
       <c r="M374" s="13"/>
       <c r="N374" s="13"/>
       <c r="O374" s="13"/>
-      <c r="P374" s="14" t="s">
-        <v>365</v>
-      </c>
+      <c r="P374" s="14"/>
     </row>
     <row r="375">
       <c r="A375" s="12"/>
@@ -9283,9 +7310,7 @@
       <c r="M375" s="13"/>
       <c r="N375" s="13"/>
       <c r="O375" s="13"/>
-      <c r="P375" s="14" t="s">
-        <v>366</v>
-      </c>
+      <c r="P375" s="14"/>
     </row>
     <row r="376">
       <c r="A376" s="12"/>
@@ -9303,9 +7328,7 @@
       <c r="M376" s="13"/>
       <c r="N376" s="13"/>
       <c r="O376" s="13"/>
-      <c r="P376" s="14" t="s">
-        <v>367</v>
-      </c>
+      <c r="P376" s="14"/>
     </row>
     <row r="377">
       <c r="A377" s="12"/>
@@ -9323,9 +7346,7 @@
       <c r="M377" s="13"/>
       <c r="N377" s="13"/>
       <c r="O377" s="13"/>
-      <c r="P377" s="14" t="s">
-        <v>368</v>
-      </c>
+      <c r="P377" s="14"/>
     </row>
     <row r="378">
       <c r="A378" s="12"/>
@@ -9343,9 +7364,7 @@
       <c r="M378" s="13"/>
       <c r="N378" s="13"/>
       <c r="O378" s="13"/>
-      <c r="P378" s="14" t="s">
-        <v>369</v>
-      </c>
+      <c r="P378" s="14"/>
     </row>
     <row r="379">
       <c r="A379" s="12"/>
@@ -9363,9 +7382,7 @@
       <c r="M379" s="13"/>
       <c r="N379" s="13"/>
       <c r="O379" s="13"/>
-      <c r="P379" s="14" t="s">
-        <v>370</v>
-      </c>
+      <c r="P379" s="14"/>
     </row>
     <row r="380">
       <c r="A380" s="12"/>
@@ -9383,9 +7400,7 @@
       <c r="M380" s="13"/>
       <c r="N380" s="13"/>
       <c r="O380" s="13"/>
-      <c r="P380" s="14" t="s">
-        <v>371</v>
-      </c>
+      <c r="P380" s="14"/>
     </row>
     <row r="381">
       <c r="A381" s="12"/>
@@ -9403,9 +7418,7 @@
       <c r="M381" s="13"/>
       <c r="N381" s="13"/>
       <c r="O381" s="13"/>
-      <c r="P381" s="14" t="s">
-        <v>372</v>
-      </c>
+      <c r="P381" s="14"/>
     </row>
     <row r="382">
       <c r="A382" s="12"/>
@@ -9423,9 +7436,7 @@
       <c r="M382" s="13"/>
       <c r="N382" s="13"/>
       <c r="O382" s="13"/>
-      <c r="P382" s="14" t="s">
-        <v>373</v>
-      </c>
+      <c r="P382" s="14"/>
     </row>
     <row r="383">
       <c r="A383" s="12"/>
@@ -9443,9 +7454,7 @@
       <c r="M383" s="13"/>
       <c r="N383" s="13"/>
       <c r="O383" s="13"/>
-      <c r="P383" s="14" t="s">
-        <v>374</v>
-      </c>
+      <c r="P383" s="14"/>
     </row>
     <row r="384">
       <c r="A384" s="12"/>
@@ -9463,9 +7472,7 @@
       <c r="M384" s="13"/>
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
-      <c r="P384" s="14" t="s">
-        <v>375</v>
-      </c>
+      <c r="P384" s="14"/>
     </row>
     <row r="385">
       <c r="A385" s="12"/>
@@ -9483,9 +7490,7 @@
       <c r="M385" s="13"/>
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
-      <c r="P385" s="14" t="s">
-        <v>376</v>
-      </c>
+      <c r="P385" s="14"/>
     </row>
     <row r="386">
       <c r="A386" s="12"/>
@@ -9503,9 +7508,7 @@
       <c r="M386" s="13"/>
       <c r="N386" s="13"/>
       <c r="O386" s="13"/>
-      <c r="P386" s="14" t="s">
-        <v>377</v>
-      </c>
+      <c r="P386" s="14"/>
     </row>
     <row r="387">
       <c r="A387" s="12"/>
@@ -9523,9 +7526,7 @@
       <c r="M387" s="13"/>
       <c r="N387" s="13"/>
       <c r="O387" s="13"/>
-      <c r="P387" s="14" t="s">
-        <v>378</v>
-      </c>
+      <c r="P387" s="14"/>
     </row>
     <row r="388">
       <c r="A388" s="12"/>
@@ -9543,9 +7544,7 @@
       <c r="M388" s="13"/>
       <c r="N388" s="13"/>
       <c r="O388" s="13"/>
-      <c r="P388" s="14" t="s">
-        <v>379</v>
-      </c>
+      <c r="P388" s="14"/>
     </row>
     <row r="389">
       <c r="A389" s="12"/>
@@ -9563,9 +7562,7 @@
       <c r="M389" s="13"/>
       <c r="N389" s="13"/>
       <c r="O389" s="13"/>
-      <c r="P389" s="14" t="s">
-        <v>380</v>
-      </c>
+      <c r="P389" s="14"/>
     </row>
     <row r="390">
       <c r="A390" s="12"/>
@@ -9583,9 +7580,7 @@
       <c r="M390" s="13"/>
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
-      <c r="P390" s="14" t="s">
-        <v>381</v>
-      </c>
+      <c r="P390" s="14"/>
     </row>
     <row r="391">
       <c r="A391" s="12"/>
@@ -9603,9 +7598,7 @@
       <c r="M391" s="13"/>
       <c r="N391" s="13"/>
       <c r="O391" s="13"/>
-      <c r="P391" s="14" t="s">
-        <v>382</v>
-      </c>
+      <c r="P391" s="14"/>
     </row>
     <row r="392">
       <c r="A392" s="12"/>
@@ -9623,9 +7616,7 @@
       <c r="M392" s="13"/>
       <c r="N392" s="13"/>
       <c r="O392" s="13"/>
-      <c r="P392" s="14" t="s">
-        <v>383</v>
-      </c>
+      <c r="P392" s="14"/>
     </row>
     <row r="393">
       <c r="A393" s="12"/>
@@ -9643,9 +7634,7 @@
       <c r="M393" s="13"/>
       <c r="N393" s="13"/>
       <c r="O393" s="13"/>
-      <c r="P393" s="14" t="s">
-        <v>384</v>
-      </c>
+      <c r="P393" s="14"/>
     </row>
     <row r="394">
       <c r="A394" s="12"/>
@@ -9663,9 +7652,7 @@
       <c r="M394" s="13"/>
       <c r="N394" s="13"/>
       <c r="O394" s="13"/>
-      <c r="P394" s="14" t="s">
-        <v>385</v>
-      </c>
+      <c r="P394" s="14"/>
     </row>
     <row r="395">
       <c r="A395" s="12"/>
@@ -9683,9 +7670,7 @@
       <c r="M395" s="13"/>
       <c r="N395" s="13"/>
       <c r="O395" s="13"/>
-      <c r="P395" s="14" t="s">
-        <v>386</v>
-      </c>
+      <c r="P395" s="14"/>
     </row>
     <row r="396">
       <c r="A396" s="12"/>
@@ -9703,9 +7688,7 @@
       <c r="M396" s="13"/>
       <c r="N396" s="13"/>
       <c r="O396" s="13"/>
-      <c r="P396" s="14" t="s">
-        <v>387</v>
-      </c>
+      <c r="P396" s="14"/>
     </row>
     <row r="397">
       <c r="A397" s="12"/>
@@ -9723,9 +7706,7 @@
       <c r="M397" s="13"/>
       <c r="N397" s="13"/>
       <c r="O397" s="13"/>
-      <c r="P397" s="14" t="s">
-        <v>388</v>
-      </c>
+      <c r="P397" s="14"/>
     </row>
     <row r="398">
       <c r="A398" s="12"/>
@@ -9743,9 +7724,7 @@
       <c r="M398" s="13"/>
       <c r="N398" s="13"/>
       <c r="O398" s="13"/>
-      <c r="P398" s="14" t="s">
-        <v>389</v>
-      </c>
+      <c r="P398" s="14"/>
     </row>
     <row r="399">
       <c r="A399" s="12"/>
@@ -9763,9 +7742,7 @@
       <c r="M399" s="13"/>
       <c r="N399" s="13"/>
       <c r="O399" s="13"/>
-      <c r="P399" s="14" t="s">
-        <v>390</v>
-      </c>
+      <c r="P399" s="14"/>
     </row>
     <row r="400">
       <c r="A400" s="12"/>
@@ -9783,9 +7760,7 @@
       <c r="M400" s="13"/>
       <c r="N400" s="13"/>
       <c r="O400" s="13"/>
-      <c r="P400" s="14" t="s">
-        <v>391</v>
-      </c>
+      <c r="P400" s="14"/>
     </row>
     <row r="401">
       <c r="A401" s="12"/>
@@ -9803,9 +7778,7 @@
       <c r="M401" s="13"/>
       <c r="N401" s="13"/>
       <c r="O401" s="13"/>
-      <c r="P401" s="14" t="s">
-        <v>392</v>
-      </c>
+      <c r="P401" s="14"/>
     </row>
     <row r="402">
       <c r="A402" s="12"/>
@@ -9823,9 +7796,7 @@
       <c r="M402" s="13"/>
       <c r="N402" s="13"/>
       <c r="O402" s="13"/>
-      <c r="P402" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="P402" s="14"/>
     </row>
     <row r="403">
       <c r="A403" s="12"/>
@@ -9843,9 +7814,7 @@
       <c r="M403" s="13"/>
       <c r="N403" s="13"/>
       <c r="O403" s="13"/>
-      <c r="P403" s="14" t="s">
-        <v>394</v>
-      </c>
+      <c r="P403" s="14"/>
     </row>
     <row r="404">
       <c r="A404" s="12"/>
@@ -9863,9 +7832,7 @@
       <c r="M404" s="13"/>
       <c r="N404" s="13"/>
       <c r="O404" s="13"/>
-      <c r="P404" s="14" t="s">
-        <v>395</v>
-      </c>
+      <c r="P404" s="14"/>
     </row>
     <row r="405">
       <c r="A405" s="12"/>
@@ -9883,9 +7850,7 @@
       <c r="M405" s="13"/>
       <c r="N405" s="13"/>
       <c r="O405" s="13"/>
-      <c r="P405" s="14" t="s">
-        <v>396</v>
-      </c>
+      <c r="P405" s="14"/>
     </row>
     <row r="406">
       <c r="A406" s="12"/>
@@ -9903,9 +7868,7 @@
       <c r="M406" s="13"/>
       <c r="N406" s="13"/>
       <c r="O406" s="13"/>
-      <c r="P406" s="14" t="s">
-        <v>397</v>
-      </c>
+      <c r="P406" s="14"/>
     </row>
     <row r="407">
       <c r="A407" s="12"/>
@@ -9923,9 +7886,7 @@
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
       <c r="O407" s="13"/>
-      <c r="P407" s="14" t="s">
-        <v>398</v>
-      </c>
+      <c r="P407" s="14"/>
     </row>
     <row r="408">
       <c r="A408" s="12"/>
@@ -9943,9 +7904,7 @@
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
       <c r="O408" s="13"/>
-      <c r="P408" s="14" t="s">
-        <v>399</v>
-      </c>
+      <c r="P408" s="14"/>
     </row>
     <row r="409">
       <c r="A409" s="12"/>
@@ -9963,9 +7922,7 @@
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
       <c r="O409" s="13"/>
-      <c r="P409" s="14" t="s">
-        <v>400</v>
-      </c>
+      <c r="P409" s="14"/>
     </row>
     <row r="410">
       <c r="A410" s="12"/>
@@ -9983,9 +7940,7 @@
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
       <c r="O410" s="13"/>
-      <c r="P410" s="14" t="s">
-        <v>401</v>
-      </c>
+      <c r="P410" s="14"/>
     </row>
     <row r="411">
       <c r="A411" s="12"/>
@@ -10003,9 +7958,7 @@
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
       <c r="O411" s="13"/>
-      <c r="P411" s="14" t="s">
-        <v>402</v>
-      </c>
+      <c r="P411" s="14"/>
     </row>
     <row r="412">
       <c r="A412" s="12"/>
@@ -10023,9 +7976,7 @@
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
       <c r="O412" s="13"/>
-      <c r="P412" s="14" t="s">
-        <v>403</v>
-      </c>
+      <c r="P412" s="14"/>
     </row>
     <row r="413">
       <c r="A413" s="12"/>
@@ -10043,9 +7994,7 @@
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
       <c r="O413" s="13"/>
-      <c r="P413" s="14" t="s">
-        <v>404</v>
-      </c>
+      <c r="P413" s="14"/>
     </row>
     <row r="414">
       <c r="A414" s="12"/>
@@ -10063,9 +8012,7 @@
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
       <c r="O414" s="13"/>
-      <c r="P414" s="14" t="s">
-        <v>405</v>
-      </c>
+      <c r="P414" s="14"/>
     </row>
     <row r="415">
       <c r="A415" s="12"/>
@@ -10083,9 +8030,7 @@
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
       <c r="O415" s="13"/>
-      <c r="P415" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="P415" s="14"/>
     </row>
     <row r="416">
       <c r="A416" s="12"/>
@@ -10103,9 +8048,7 @@
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
       <c r="O416" s="13"/>
-      <c r="P416" s="14" t="s">
-        <v>407</v>
-      </c>
+      <c r="P416" s="14"/>
     </row>
     <row r="417">
       <c r="A417" s="12"/>
@@ -10123,9 +8066,7 @@
       <c r="M417" s="13"/>
       <c r="N417" s="13"/>
       <c r="O417" s="13"/>
-      <c r="P417" s="14" t="s">
-        <v>408</v>
-      </c>
+      <c r="P417" s="14"/>
     </row>
     <row r="418">
       <c r="A418" s="12"/>
@@ -10143,9 +8084,7 @@
       <c r="M418" s="13"/>
       <c r="N418" s="13"/>
       <c r="O418" s="13"/>
-      <c r="P418" s="14" t="s">
-        <v>409</v>
-      </c>
+      <c r="P418" s="14"/>
     </row>
     <row r="419">
       <c r="A419" s="12"/>
@@ -10163,9 +8102,7 @@
       <c r="M419" s="13"/>
       <c r="N419" s="13"/>
       <c r="O419" s="13"/>
-      <c r="P419" s="14" t="s">
-        <v>410</v>
-      </c>
+      <c r="P419" s="14"/>
     </row>
     <row r="420">
       <c r="A420" s="12"/>
@@ -10183,9 +8120,7 @@
       <c r="M420" s="13"/>
       <c r="N420" s="13"/>
       <c r="O420" s="13"/>
-      <c r="P420" s="14" t="s">
-        <v>411</v>
-      </c>
+      <c r="P420" s="14"/>
     </row>
     <row r="421">
       <c r="A421" s="12"/>
@@ -10203,9 +8138,7 @@
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
       <c r="O421" s="13"/>
-      <c r="P421" s="14" t="s">
-        <v>412</v>
-      </c>
+      <c r="P421" s="14"/>
     </row>
     <row r="422">
       <c r="A422" s="12"/>
@@ -10223,9 +8156,7 @@
       <c r="M422" s="13"/>
       <c r="N422" s="13"/>
       <c r="O422" s="13"/>
-      <c r="P422" s="14" t="s">
-        <v>413</v>
-      </c>
+      <c r="P422" s="14"/>
     </row>
     <row r="423">
       <c r="A423" s="12"/>
@@ -10243,9 +8174,7 @@
       <c r="M423" s="13"/>
       <c r="N423" s="13"/>
       <c r="O423" s="13"/>
-      <c r="P423" s="14" t="s">
-        <v>414</v>
-      </c>
+      <c r="P423" s="14"/>
     </row>
     <row r="424">
       <c r="A424" s="12"/>
@@ -10263,9 +8192,7 @@
       <c r="M424" s="13"/>
       <c r="N424" s="13"/>
       <c r="O424" s="13"/>
-      <c r="P424" s="14" t="s">
-        <v>415</v>
-      </c>
+      <c r="P424" s="14"/>
     </row>
     <row r="425">
       <c r="A425" s="12"/>
@@ -10283,9 +8210,7 @@
       <c r="M425" s="13"/>
       <c r="N425" s="13"/>
       <c r="O425" s="13"/>
-      <c r="P425" s="14" t="s">
-        <v>416</v>
-      </c>
+      <c r="P425" s="14"/>
     </row>
     <row r="426">
       <c r="A426" s="12"/>
@@ -10303,9 +8228,7 @@
       <c r="M426" s="13"/>
       <c r="N426" s="13"/>
       <c r="O426" s="13"/>
-      <c r="P426" s="14" t="s">
-        <v>417</v>
-      </c>
+      <c r="P426" s="14"/>
     </row>
     <row r="427">
       <c r="A427" s="12"/>
@@ -10323,9 +8246,7 @@
       <c r="M427" s="13"/>
       <c r="N427" s="13"/>
       <c r="O427" s="13"/>
-      <c r="P427" s="14" t="s">
-        <v>418</v>
-      </c>
+      <c r="P427" s="14"/>
     </row>
     <row r="428">
       <c r="A428" s="12"/>
@@ -10343,9 +8264,7 @@
       <c r="M428" s="13"/>
       <c r="N428" s="13"/>
       <c r="O428" s="13"/>
-      <c r="P428" s="14" t="s">
-        <v>419</v>
-      </c>
+      <c r="P428" s="14"/>
     </row>
     <row r="429">
       <c r="A429" s="12"/>
@@ -10363,9 +8282,7 @@
       <c r="M429" s="13"/>
       <c r="N429" s="13"/>
       <c r="O429" s="13"/>
-      <c r="P429" s="14" t="s">
-        <v>420</v>
-      </c>
+      <c r="P429" s="14"/>
     </row>
     <row r="430">
       <c r="A430" s="12"/>
@@ -10383,9 +8300,7 @@
       <c r="M430" s="13"/>
       <c r="N430" s="13"/>
       <c r="O430" s="13"/>
-      <c r="P430" s="14" t="s">
-        <v>421</v>
-      </c>
+      <c r="P430" s="14"/>
     </row>
     <row r="431">
       <c r="A431" s="12"/>
@@ -10403,9 +8318,7 @@
       <c r="M431" s="13"/>
       <c r="N431" s="13"/>
       <c r="O431" s="13"/>
-      <c r="P431" s="14" t="s">
-        <v>422</v>
-      </c>
+      <c r="P431" s="14"/>
     </row>
     <row r="432">
       <c r="A432" s="12"/>
@@ -10423,9 +8336,7 @@
       <c r="M432" s="13"/>
       <c r="N432" s="13"/>
       <c r="O432" s="13"/>
-      <c r="P432" s="14" t="s">
-        <v>423</v>
-      </c>
+      <c r="P432" s="14"/>
     </row>
     <row r="433">
       <c r="A433" s="12"/>
@@ -10443,9 +8354,7 @@
       <c r="M433" s="13"/>
       <c r="N433" s="13"/>
       <c r="O433" s="13"/>
-      <c r="P433" s="14" t="s">
-        <v>424</v>
-      </c>
+      <c r="P433" s="14"/>
     </row>
     <row r="434">
       <c r="A434" s="12"/>
@@ -10463,9 +8372,7 @@
       <c r="M434" s="13"/>
       <c r="N434" s="13"/>
       <c r="O434" s="13"/>
-      <c r="P434" s="14" t="s">
-        <v>425</v>
-      </c>
+      <c r="P434" s="14"/>
     </row>
     <row r="435">
       <c r="A435" s="12"/>
@@ -10483,9 +8390,7 @@
       <c r="M435" s="13"/>
       <c r="N435" s="13"/>
       <c r="O435" s="13"/>
-      <c r="P435" s="14" t="s">
-        <v>426</v>
-      </c>
+      <c r="P435" s="14"/>
     </row>
     <row r="436">
       <c r="A436" s="12"/>
@@ -10503,9 +8408,7 @@
       <c r="M436" s="13"/>
       <c r="N436" s="13"/>
       <c r="O436" s="13"/>
-      <c r="P436" s="14" t="s">
-        <v>427</v>
-      </c>
+      <c r="P436" s="14"/>
     </row>
     <row r="437">
       <c r="A437" s="12"/>
@@ -10523,9 +8426,7 @@
       <c r="M437" s="13"/>
       <c r="N437" s="13"/>
       <c r="O437" s="13"/>
-      <c r="P437" s="14" t="s">
-        <v>428</v>
-      </c>
+      <c r="P437" s="14"/>
     </row>
     <row r="438">
       <c r="A438" s="12"/>
@@ -10543,9 +8444,7 @@
       <c r="M438" s="13"/>
       <c r="N438" s="13"/>
       <c r="O438" s="13"/>
-      <c r="P438" s="14" t="s">
-        <v>429</v>
-      </c>
+      <c r="P438" s="14"/>
     </row>
     <row r="439">
       <c r="A439" s="12"/>
@@ -10563,9 +8462,7 @@
       <c r="M439" s="13"/>
       <c r="N439" s="13"/>
       <c r="O439" s="13"/>
-      <c r="P439" s="14" t="s">
-        <v>430</v>
-      </c>
+      <c r="P439" s="14"/>
     </row>
     <row r="440">
       <c r="A440" s="12"/>
@@ -10583,9 +8480,7 @@
       <c r="M440" s="13"/>
       <c r="N440" s="13"/>
       <c r="O440" s="13"/>
-      <c r="P440" s="14" t="s">
-        <v>431</v>
-      </c>
+      <c r="P440" s="14"/>
     </row>
     <row r="441">
       <c r="A441" s="12"/>
@@ -10603,9 +8498,7 @@
       <c r="M441" s="13"/>
       <c r="N441" s="13"/>
       <c r="O441" s="13"/>
-      <c r="P441" s="14" t="s">
-        <v>432</v>
-      </c>
+      <c r="P441" s="14"/>
     </row>
     <row r="442">
       <c r="A442" s="12"/>
@@ -10623,9 +8516,7 @@
       <c r="M442" s="13"/>
       <c r="N442" s="13"/>
       <c r="O442" s="13"/>
-      <c r="P442" s="14" t="s">
-        <v>433</v>
-      </c>
+      <c r="P442" s="14"/>
     </row>
     <row r="443">
       <c r="A443" s="12"/>
@@ -10643,9 +8534,7 @@
       <c r="M443" s="13"/>
       <c r="N443" s="13"/>
       <c r="O443" s="13"/>
-      <c r="P443" s="14" t="s">
-        <v>434</v>
-      </c>
+      <c r="P443" s="14"/>
     </row>
     <row r="444">
       <c r="A444" s="12"/>
@@ -10663,9 +8552,7 @@
       <c r="M444" s="13"/>
       <c r="N444" s="13"/>
       <c r="O444" s="13"/>
-      <c r="P444" s="14" t="s">
-        <v>435</v>
-      </c>
+      <c r="P444" s="14"/>
     </row>
     <row r="445">
       <c r="A445" s="12"/>
@@ -10683,9 +8570,7 @@
       <c r="M445" s="13"/>
       <c r="N445" s="13"/>
       <c r="O445" s="13"/>
-      <c r="P445" s="14" t="s">
-        <v>436</v>
-      </c>
+      <c r="P445" s="14"/>
     </row>
     <row r="446">
       <c r="A446" s="12"/>
@@ -10703,9 +8588,7 @@
       <c r="M446" s="13"/>
       <c r="N446" s="13"/>
       <c r="O446" s="13"/>
-      <c r="P446" s="14" t="s">
-        <v>437</v>
-      </c>
+      <c r="P446" s="14"/>
     </row>
     <row r="447">
       <c r="A447" s="12"/>
@@ -10723,9 +8606,7 @@
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
       <c r="O447" s="13"/>
-      <c r="P447" s="14" t="s">
-        <v>438</v>
-      </c>
+      <c r="P447" s="14"/>
     </row>
     <row r="448">
       <c r="A448" s="12"/>
@@ -10743,9 +8624,7 @@
       <c r="M448" s="13"/>
       <c r="N448" s="13"/>
       <c r="O448" s="13"/>
-      <c r="P448" s="14" t="s">
-        <v>439</v>
-      </c>
+      <c r="P448" s="14"/>
     </row>
     <row r="449">
       <c r="A449" s="12"/>
@@ -10763,9 +8642,7 @@
       <c r="M449" s="13"/>
       <c r="N449" s="13"/>
       <c r="O449" s="13"/>
-      <c r="P449" s="14" t="s">
-        <v>440</v>
-      </c>
+      <c r="P449" s="14"/>
     </row>
     <row r="450">
       <c r="A450" s="12"/>
@@ -10783,9 +8660,7 @@
       <c r="M450" s="13"/>
       <c r="N450" s="13"/>
       <c r="O450" s="13"/>
-      <c r="P450" s="14" t="s">
-        <v>441</v>
-      </c>
+      <c r="P450" s="14"/>
     </row>
     <row r="451">
       <c r="A451" s="12"/>
@@ -10803,9 +8678,7 @@
       <c r="M451" s="13"/>
       <c r="N451" s="13"/>
       <c r="O451" s="13"/>
-      <c r="P451" s="14" t="s">
-        <v>442</v>
-      </c>
+      <c r="P451" s="14"/>
     </row>
     <row r="452">
       <c r="A452" s="12"/>
@@ -10823,9 +8696,7 @@
       <c r="M452" s="13"/>
       <c r="N452" s="13"/>
       <c r="O452" s="13"/>
-      <c r="P452" s="14" t="s">
-        <v>443</v>
-      </c>
+      <c r="P452" s="14"/>
     </row>
     <row r="453">
       <c r="A453" s="12"/>
@@ -10843,9 +8714,7 @@
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
       <c r="O453" s="13"/>
-      <c r="P453" s="14" t="s">
-        <v>444</v>
-      </c>
+      <c r="P453" s="14"/>
     </row>
     <row r="454">
       <c r="A454" s="12"/>
@@ -10863,9 +8732,7 @@
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
       <c r="O454" s="13"/>
-      <c r="P454" s="14" t="s">
-        <v>445</v>
-      </c>
+      <c r="P454" s="14"/>
     </row>
     <row r="455">
       <c r="A455" s="12"/>
@@ -10883,9 +8750,7 @@
       <c r="M455" s="13"/>
       <c r="N455" s="13"/>
       <c r="O455" s="13"/>
-      <c r="P455" s="14" t="s">
-        <v>446</v>
-      </c>
+      <c r="P455" s="14"/>
     </row>
     <row r="456">
       <c r="A456" s="12"/>
@@ -10903,9 +8768,7 @@
       <c r="M456" s="13"/>
       <c r="N456" s="13"/>
       <c r="O456" s="13"/>
-      <c r="P456" s="14" t="s">
-        <v>447</v>
-      </c>
+      <c r="P456" s="14"/>
     </row>
     <row r="457">
       <c r="A457" s="12"/>
@@ -10923,9 +8786,7 @@
       <c r="M457" s="13"/>
       <c r="N457" s="13"/>
       <c r="O457" s="13"/>
-      <c r="P457" s="14" t="s">
-        <v>448</v>
-      </c>
+      <c r="P457" s="14"/>
     </row>
     <row r="458">
       <c r="A458" s="12"/>
@@ -10943,9 +8804,7 @@
       <c r="M458" s="13"/>
       <c r="N458" s="13"/>
       <c r="O458" s="13"/>
-      <c r="P458" s="14" t="s">
-        <v>449</v>
-      </c>
+      <c r="P458" s="14"/>
     </row>
     <row r="459">
       <c r="A459" s="12"/>
@@ -10963,9 +8822,7 @@
       <c r="M459" s="13"/>
       <c r="N459" s="13"/>
       <c r="O459" s="13"/>
-      <c r="P459" s="14" t="s">
-        <v>450</v>
-      </c>
+      <c r="P459" s="14"/>
     </row>
     <row r="460">
       <c r="A460" s="12"/>
@@ -10983,9 +8840,7 @@
       <c r="M460" s="13"/>
       <c r="N460" s="13"/>
       <c r="O460" s="13"/>
-      <c r="P460" s="14" t="s">
-        <v>451</v>
-      </c>
+      <c r="P460" s="14"/>
     </row>
     <row r="461">
       <c r="A461" s="12"/>
@@ -11003,9 +8858,7 @@
       <c r="M461" s="13"/>
       <c r="N461" s="13"/>
       <c r="O461" s="13"/>
-      <c r="P461" s="14" t="s">
-        <v>452</v>
-      </c>
+      <c r="P461" s="14"/>
     </row>
     <row r="462">
       <c r="A462" s="12"/>
@@ -11023,9 +8876,7 @@
       <c r="M462" s="13"/>
       <c r="N462" s="13"/>
       <c r="O462" s="13"/>
-      <c r="P462" s="14" t="s">
-        <v>453</v>
-      </c>
+      <c r="P462" s="14"/>
     </row>
     <row r="463">
       <c r="A463" s="12"/>
@@ -11043,9 +8894,7 @@
       <c r="M463" s="13"/>
       <c r="N463" s="13"/>
       <c r="O463" s="13"/>
-      <c r="P463" s="14" t="s">
-        <v>454</v>
-      </c>
+      <c r="P463" s="14"/>
     </row>
     <row r="464">
       <c r="A464" s="12"/>
@@ -11063,9 +8912,7 @@
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
       <c r="O464" s="13"/>
-      <c r="P464" s="14" t="s">
-        <v>454</v>
-      </c>
+      <c r="P464" s="14"/>
     </row>
     <row r="465">
       <c r="A465" s="12"/>
@@ -11083,9 +8930,7 @@
       <c r="M465" s="13"/>
       <c r="N465" s="13"/>
       <c r="O465" s="13"/>
-      <c r="P465" s="14" t="s">
-        <v>455</v>
-      </c>
+      <c r="P465" s="14"/>
     </row>
     <row r="466">
       <c r="A466" s="12"/>
@@ -11103,9 +8948,7 @@
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
       <c r="O466" s="13"/>
-      <c r="P466" s="14" t="s">
-        <v>456</v>
-      </c>
+      <c r="P466" s="14"/>
     </row>
     <row r="467">
       <c r="A467" s="12"/>
@@ -11123,9 +8966,7 @@
       <c r="M467" s="13"/>
       <c r="N467" s="13"/>
       <c r="O467" s="13"/>
-      <c r="P467" s="14" t="s">
-        <v>457</v>
-      </c>
+      <c r="P467" s="14"/>
     </row>
     <row r="468">
       <c r="A468" s="12"/>
@@ -11143,9 +8984,7 @@
       <c r="M468" s="13"/>
       <c r="N468" s="13"/>
       <c r="O468" s="13"/>
-      <c r="P468" s="14" t="s">
-        <v>458</v>
-      </c>
+      <c r="P468" s="14"/>
     </row>
     <row r="469">
       <c r="A469" s="12"/>
@@ -11163,9 +9002,7 @@
       <c r="M469" s="13"/>
       <c r="N469" s="13"/>
       <c r="O469" s="13"/>
-      <c r="P469" s="14" t="s">
-        <v>459</v>
-      </c>
+      <c r="P469" s="14"/>
     </row>
     <row r="470">
       <c r="A470" s="12"/>
@@ -11183,9 +9020,7 @@
       <c r="M470" s="13"/>
       <c r="N470" s="13"/>
       <c r="O470" s="13"/>
-      <c r="P470" s="14" t="s">
-        <v>460</v>
-      </c>
+      <c r="P470" s="14"/>
     </row>
     <row r="471">
       <c r="A471" s="12"/>
@@ -11203,9 +9038,7 @@
       <c r="M471" s="13"/>
       <c r="N471" s="13"/>
       <c r="O471" s="13"/>
-      <c r="P471" s="14" t="s">
-        <v>461</v>
-      </c>
+      <c r="P471" s="14"/>
     </row>
     <row r="472">
       <c r="A472" s="12"/>
@@ -11223,9 +9056,7 @@
       <c r="M472" s="13"/>
       <c r="N472" s="13"/>
       <c r="O472" s="13"/>
-      <c r="P472" s="14" t="s">
-        <v>462</v>
-      </c>
+      <c r="P472" s="14"/>
     </row>
     <row r="473">
       <c r="A473" s="12"/>
@@ -11243,9 +9074,7 @@
       <c r="M473" s="13"/>
       <c r="N473" s="13"/>
       <c r="O473" s="13"/>
-      <c r="P473" s="14" t="s">
-        <v>463</v>
-      </c>
+      <c r="P473" s="14"/>
     </row>
     <row r="474">
       <c r="A474" s="12"/>
@@ -11263,9 +9092,7 @@
       <c r="M474" s="13"/>
       <c r="N474" s="13"/>
       <c r="O474" s="13"/>
-      <c r="P474" s="14" t="s">
-        <v>464</v>
-      </c>
+      <c r="P474" s="14"/>
     </row>
     <row r="475">
       <c r="A475" s="12"/>
@@ -11283,9 +9110,7 @@
       <c r="M475" s="13"/>
       <c r="N475" s="13"/>
       <c r="O475" s="13"/>
-      <c r="P475" s="14" t="s">
-        <v>465</v>
-      </c>
+      <c r="P475" s="14"/>
     </row>
     <row r="476">
       <c r="A476" s="12"/>
@@ -11303,9 +9128,7 @@
       <c r="M476" s="13"/>
       <c r="N476" s="13"/>
       <c r="O476" s="13"/>
-      <c r="P476" s="14" t="s">
-        <v>466</v>
-      </c>
+      <c r="P476" s="14"/>
     </row>
     <row r="477">
       <c r="A477" s="12"/>
@@ -11323,9 +9146,7 @@
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
       <c r="O477" s="13"/>
-      <c r="P477" s="14" t="s">
-        <v>467</v>
-      </c>
+      <c r="P477" s="14"/>
     </row>
     <row r="478">
       <c r="A478" s="12"/>
@@ -11343,9 +9164,7 @@
       <c r="M478" s="13"/>
       <c r="N478" s="13"/>
       <c r="O478" s="13"/>
-      <c r="P478" s="14" t="s">
-        <v>468</v>
-      </c>
+      <c r="P478" s="14"/>
     </row>
     <row r="479">
       <c r="A479" s="12"/>
